--- a/scrapy_simple/file/DictionaryOil_270220.xlsx
+++ b/scrapy_simple/file/DictionaryOil_270220.xlsx
@@ -8,14 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\supak\Desktop\scrpy\scrapy_simple\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3484A7-0A48-4847-9D4B-842B61B95C18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D577BD2E-537E-4B83-B25B-673A26A7473C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dict" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -978,8 +986,8 @@
   </sheetPr>
   <dimension ref="A1:J1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1043,7 +1051,7 @@
         <v>162</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" s="12"/>
     </row>
@@ -1070,7 +1078,7 @@
         <v>162</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1096,7 +1104,7 @@
         <v>162</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1122,7 +1130,7 @@
         <v>162</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1148,7 +1156,7 @@
         <v>162</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1174,7 +1182,7 @@
         <v>162</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1200,7 +1208,7 @@
         <v>162</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1226,7 +1234,7 @@
         <v>162</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1252,7 +1260,7 @@
         <v>162</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1278,7 +1286,7 @@
         <v>162</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1304,7 +1312,7 @@
         <v>162</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1330,7 +1338,7 @@
         <v>162</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1356,7 +1364,7 @@
         <v>162</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1382,7 +1390,7 @@
         <v>162</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1408,10 +1416,10 @@
         <v>162</v>
       </c>
       <c r="H16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1434,10 +1442,10 @@
         <v>162</v>
       </c>
       <c r="H17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1460,10 +1468,10 @@
         <v>162</v>
       </c>
       <c r="H18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1486,10 +1494,10 @@
         <v>162</v>
       </c>
       <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1512,10 +1520,10 @@
         <v>162</v>
       </c>
       <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1536,10 +1544,10 @@
         <v>162</v>
       </c>
       <c r="H21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1560,10 +1568,10 @@
         <v>162</v>
       </c>
       <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1584,10 +1592,10 @@
         <v>162</v>
       </c>
       <c r="H23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1608,10 +1616,10 @@
         <v>162</v>
       </c>
       <c r="H24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1632,10 +1640,10 @@
         <v>162</v>
       </c>
       <c r="H25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1656,10 +1664,10 @@
         <v>162</v>
       </c>
       <c r="H26" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1679,11 +1687,10 @@
         <v>162</v>
       </c>
       <c r="H27" s="12">
-        <v>3</v>
-      </c>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1704,11 +1711,10 @@
       </c>
       <c r="G28" s="8"/>
       <c r="H28">
-        <v>2</v>
-      </c>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1729,11 +1735,10 @@
         <v>162</v>
       </c>
       <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="I29" s="8"/>
-    </row>
-    <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1754,11 +1759,10 @@
       </c>
       <c r="G30" s="10"/>
       <c r="H30">
-        <v>2</v>
-      </c>
-      <c r="I30" s="10"/>
-    </row>
-    <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1779,11 +1783,10 @@
         <v>162</v>
       </c>
       <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1806,9 +1809,8 @@
         <v>162</v>
       </c>
       <c r="H32">
-        <v>3</v>
-      </c>
-      <c r="I32" s="10"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
@@ -1830,7 +1832,7 @@
         <v>162</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
@@ -1853,7 +1855,7 @@
         <v>162</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
@@ -1876,7 +1878,7 @@
         <v>162</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
@@ -1899,7 +1901,7 @@
         <v>162</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
@@ -1922,7 +1924,7 @@
         <v>167</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">

--- a/scrapy_simple/file/DictionaryOil_270220.xlsx
+++ b/scrapy_simple/file/DictionaryOil_270220.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\supak\Desktop\scrpy\scrapy_simple\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MiniPair\Desktop\scrpy\scrapy_simple\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D577BD2E-537E-4B83-B25B-673A26A7473C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A32CAB3-4F90-4715-9EA8-9134AEE3CDB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dict" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="201">
   <si>
     <t>Keyword</t>
   </si>
@@ -986,23 +986,23 @@
   </sheetPr>
   <dimension ref="A1:J1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.21875" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
-    <col min="5" max="5" width="21.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>140</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>66</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>177</v>
@@ -1643,7 +1643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>87</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>164</v>
@@ -1667,7 +1667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>73</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E27" t="s">
         <v>165</v>
@@ -1690,7 +1690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1700,8 +1700,8 @@
       <c r="C28" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>124</v>
+      <c r="D28" t="s">
+        <v>4</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>166</v>
@@ -1714,7 +1714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1724,8 +1724,8 @@
       <c r="C29" t="s">
         <v>85</v>
       </c>
-      <c r="D29" t="s">
-        <v>4</v>
+      <c r="D29" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>47</v>
@@ -1738,7 +1738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>91</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>168</v>
@@ -1762,7 +1762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1772,8 +1772,8 @@
       <c r="C31" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>137</v>
+      <c r="D31" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>169</v>
@@ -1786,7 +1786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1796,8 +1796,8 @@
       <c r="C32" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>138</v>
+      <c r="D32" t="s">
+        <v>141</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>170</v>
@@ -1812,7 +1812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -1822,8 +1822,8 @@
       <c r="C33" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D33" t="s">
-        <v>141</v>
+      <c r="D33" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>193</v>
@@ -1835,7 +1835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1845,8 +1845,8 @@
       <c r="C34" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>194</v>
+      <c r="D34" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="E34" t="s">
         <v>196</v>
@@ -1858,7 +1858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -1868,8 +1868,8 @@
       <c r="C35" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>195</v>
+      <c r="D35" t="s">
+        <v>145</v>
       </c>
       <c r="E35" t="s">
         <v>197</v>
@@ -1881,7 +1881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E36" t="s">
         <v>198</v>
@@ -1904,7 +1904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E37" t="s">
         <v>199</v>
@@ -1927,7 +1927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1938,10 +1938,10 @@
         <v>67</v>
       </c>
       <c r="D38" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -1951,11 +1951,11 @@
       <c r="C39" t="s">
         <v>68</v>
       </c>
-      <c r="D39" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D39" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -1965,11 +1965,11 @@
       <c r="C40" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D40" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -1979,11 +1979,9 @@
       <c r="C41" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -1995,7 +1993,7 @@
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2007,7 +2005,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -2019,7 +2017,7 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2031,7 +2029,7 @@
       </c>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -2046,7 +2044,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
     </row>
-    <row r="47" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2061,7 +2059,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -2071,12 +2069,12 @@
       <c r="C48" t="s">
         <v>139</v>
       </c>
-      <c r="D48" s="8"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
     </row>
-    <row r="49" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -2091,7 +2089,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -2106,7 +2104,7 @@
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -2121,7 +2119,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -2131,12 +2129,11 @@
       <c r="C52" t="s">
         <v>143</v>
       </c>
-      <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -2146,8 +2143,9 @@
       <c r="C53" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -2162,7 +2160,7 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -2177,7 +2175,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -2192,7 +2190,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -2207,7 +2205,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -2219,7 +2217,7 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -2231,7 +2229,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -2243,7 +2241,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -2255,7 +2253,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -2267,7 +2265,7 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -2279,7 +2277,7 @@
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -2291,7 +2289,7 @@
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
     </row>
-    <row r="65" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -2303,7 +2301,7 @@
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="11"/>
       <c r="D66" s="5"/>
@@ -2311,30 +2309,30 @@
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
     </row>
-    <row r="67" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="11"/>
-      <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
     </row>
-    <row r="68" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="11"/>
     </row>
-    <row r="69" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="11"/>
-    </row>
-    <row r="70" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="11"/>
       <c r="D71" s="5"/>
@@ -2342,7 +2340,7 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
     </row>
-    <row r="72" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="11"/>
       <c r="C72" s="5"/>
@@ -2351,7 +2349,7 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
     </row>
-    <row r="73" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -2359,7 +2357,7 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
     </row>
-    <row r="74" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -2367,7 +2365,7 @@
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
     </row>
-    <row r="75" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="11"/>
       <c r="C75" s="5"/>
@@ -2376,7 +2374,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
     </row>
-    <row r="76" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="11"/>
       <c r="C76" s="5"/>
@@ -2385,7 +2383,7 @@
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
     </row>
-    <row r="77" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -2393,7 +2391,7 @@
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
     </row>
-    <row r="78" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="11"/>
       <c r="C78" s="5"/>
@@ -2402,7 +2400,7 @@
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
     </row>
-    <row r="79" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="11"/>
       <c r="C79" s="5"/>
@@ -2411,7 +2409,7 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
     </row>
-    <row r="80" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="11"/>
       <c r="C80" s="5"/>
@@ -2420,7 +2418,7 @@
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
     </row>
-    <row r="81" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="11"/>
       <c r="C81" s="5"/>
@@ -2429,7 +2427,7 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
     </row>
-    <row r="82" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -2437,7 +2435,7 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
     </row>
-    <row r="83" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
@@ -2445,7 +2443,7 @@
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
     </row>
-    <row r="84" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="11"/>
       <c r="C84" s="5"/>
@@ -2454,7 +2452,7 @@
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
     </row>
-    <row r="85" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="11"/>
       <c r="C85" s="5"/>
@@ -2463,7 +2461,7 @@
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
     </row>
-    <row r="86" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="11"/>
       <c r="C86" s="5"/>
@@ -2472,7 +2470,7 @@
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
     </row>
-    <row r="87" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="11"/>
       <c r="C87" s="5"/>
@@ -2481,7 +2479,7 @@
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
     </row>
-    <row r="88" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -2489,7 +2487,7 @@
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
     </row>
-    <row r="89" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -2497,7 +2495,7 @@
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
     </row>
-    <row r="90" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -2505,7 +2503,7 @@
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
     </row>
-    <row r="91" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -2513,7 +2511,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -2521,7 +2519,7 @@
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -2529,7 +2527,7 @@
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
     </row>
-    <row r="94" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="11"/>
       <c r="C94" s="5"/>
@@ -2538,7 +2536,7 @@
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
     </row>
-    <row r="95" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -2546,7 +2544,7 @@
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
     </row>
-    <row r="96" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -2554,7 +2552,7 @@
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
     </row>
-    <row r="97" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -2562,7 +2560,7 @@
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
     </row>
-    <row r="98" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -2570,7 +2568,7 @@
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
     </row>
-    <row r="99" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -2578,7 +2576,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
     </row>
-    <row r="100" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -2586,7 +2584,7 @@
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
     </row>
-    <row r="101" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="11"/>
       <c r="C101" s="5"/>
@@ -2595,7 +2593,7 @@
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="11"/>
       <c r="C102" s="5"/>
@@ -2604,7 +2602,7 @@
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
     </row>
-    <row r="103" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="11"/>
       <c r="C103" s="5"/>
@@ -2613,7 +2611,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
     </row>
-    <row r="104" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="11"/>
       <c r="C104" s="5"/>
@@ -2622,7 +2620,7 @@
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="11"/>
       <c r="C105" s="5"/>
@@ -2631,7 +2629,7 @@
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="11"/>
       <c r="C106" s="5"/>
@@ -2640,7 +2638,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="11"/>
       <c r="C107" s="5"/>
@@ -2649,7 +2647,7 @@
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="11"/>
       <c r="C108" s="5"/>
@@ -2658,7 +2656,7 @@
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="11"/>
       <c r="C109" s="5"/>
@@ -2667,7 +2665,7 @@
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="11"/>
       <c r="C110" s="5"/>
@@ -2676,7 +2674,7 @@
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
     </row>
-    <row r="111" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="11"/>
       <c r="C111" s="5"/>
@@ -2685,7 +2683,7 @@
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
     </row>
-    <row r="112" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="11"/>
       <c r="C112" s="5"/>
@@ -2694,7 +2692,7 @@
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
     </row>
-    <row r="113" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="11"/>
       <c r="C113" s="5"/>
@@ -2703,7 +2701,7 @@
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
     </row>
-    <row r="114" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="11"/>
       <c r="C114" s="5"/>
@@ -2712,7 +2710,7 @@
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
     </row>
-    <row r="115" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="B115" s="11"/>
       <c r="C115" s="5"/>
@@ -2721,7 +2719,7 @@
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
     </row>
-    <row r="116" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="B116" s="11"/>
       <c r="C116" s="5"/>
@@ -2730,7 +2728,7 @@
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
     </row>
-    <row r="117" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="11"/>
       <c r="C117" s="5"/>
@@ -2739,7 +2737,7 @@
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
     </row>
-    <row r="118" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="11"/>
       <c r="C118" s="5"/>
@@ -2748,7 +2746,7 @@
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
     </row>
-    <row r="119" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="11"/>
       <c r="C119" s="5"/>
@@ -2757,7 +2755,7 @@
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" s="11"/>
       <c r="C120" s="5"/>
@@ -2766,7 +2764,7 @@
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
     </row>
-    <row r="121" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="11"/>
       <c r="C121" s="5"/>
@@ -2775,7 +2773,7 @@
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
     </row>
-    <row r="122" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="11"/>
       <c r="C122" s="5"/>
@@ -2784,7 +2782,7 @@
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
     </row>
-    <row r="123" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="11"/>
       <c r="C123" s="5"/>
@@ -2793,7 +2791,7 @@
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
     </row>
-    <row r="124" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="11"/>
       <c r="C124" s="5"/>
@@ -2802,7 +2800,7 @@
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
     </row>
-    <row r="125" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="11"/>
       <c r="C125" s="5"/>
@@ -2811,7 +2809,7 @@
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
     </row>
-    <row r="126" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="11"/>
       <c r="C126" s="5"/>
@@ -2820,7 +2818,7 @@
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
     </row>
-    <row r="127" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="B127" s="11"/>
       <c r="C127" s="5"/>
@@ -2829,7 +2827,7 @@
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
     </row>
-    <row r="128" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="11"/>
       <c r="C128" s="5"/>
@@ -2838,7 +2836,7 @@
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
     </row>
-    <row r="129" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="11"/>
       <c r="C129" s="5"/>
@@ -2847,7 +2845,7 @@
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
     </row>
-    <row r="130" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="11"/>
       <c r="C130" s="5"/>
@@ -2856,7 +2854,7 @@
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
     </row>
-    <row r="131" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="11"/>
       <c r="C131" s="5"/>
@@ -2865,7 +2863,7 @@
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
     </row>
-    <row r="132" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
       <c r="B132" s="11"/>
       <c r="C132" s="5"/>
@@ -2874,7 +2872,7 @@
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
     </row>
-    <row r="133" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="11"/>
       <c r="C133" s="5"/>
@@ -2883,7 +2881,7 @@
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
     </row>
-    <row r="134" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="11"/>
       <c r="C134" s="5"/>
@@ -2892,7 +2890,7 @@
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
     </row>
-    <row r="135" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="11"/>
       <c r="C135" s="5"/>
@@ -2901,7 +2899,7 @@
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
     </row>
-    <row r="136" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
       <c r="B136" s="11"/>
       <c r="C136" s="5"/>
@@ -2910,7 +2908,7 @@
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
     </row>
-    <row r="137" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
       <c r="B137" s="11"/>
       <c r="C137" s="5"/>
@@ -2919,7 +2917,7 @@
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
     </row>
-    <row r="138" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="11"/>
       <c r="C138" s="5"/>
@@ -2928,7 +2926,7 @@
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
     </row>
-    <row r="139" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
       <c r="B139" s="11"/>
       <c r="C139" s="5"/>
@@ -2937,7 +2935,7 @@
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
     </row>
-    <row r="140" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
       <c r="B140" s="11"/>
       <c r="C140" s="5"/>
@@ -2946,7 +2944,7 @@
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
     </row>
-    <row r="141" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
       <c r="B141" s="11"/>
       <c r="C141" s="5"/>
@@ -2955,7 +2953,7 @@
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
     </row>
-    <row r="142" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
       <c r="B142" s="11"/>
       <c r="C142" s="5"/>
@@ -2964,7 +2962,7 @@
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
     </row>
-    <row r="143" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
       <c r="B143" s="11"/>
       <c r="C143" s="5"/>
@@ -2973,7 +2971,7 @@
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
     </row>
-    <row r="144" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
       <c r="B144" s="11"/>
       <c r="C144" s="5"/>
@@ -2982,7 +2980,7 @@
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
     </row>
-    <row r="145" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
       <c r="B145" s="11"/>
       <c r="C145" s="5"/>
@@ -2991,7 +2989,7 @@
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
     </row>
-    <row r="146" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="5"/>
       <c r="B146" s="11"/>
       <c r="C146" s="5"/>
@@ -3000,7 +2998,7 @@
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
     </row>
-    <row r="147" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
       <c r="B147" s="11"/>
       <c r="C147" s="5"/>
@@ -3009,7 +3007,7 @@
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
     </row>
-    <row r="148" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="5"/>
       <c r="B148" s="11"/>
       <c r="C148" s="5"/>
@@ -3018,7 +3016,7 @@
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
     </row>
-    <row r="149" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -3027,7 +3025,7 @@
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
     </row>
-    <row r="150" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -3036,7 +3034,7 @@
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
     </row>
-    <row r="151" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -3045,7 +3043,7 @@
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
     </row>
-    <row r="152" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -3054,7 +3052,7 @@
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
     </row>
-    <row r="153" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -3063,7 +3061,7 @@
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
     </row>
-    <row r="154" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -3072,7 +3070,7 @@
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
     </row>
-    <row r="155" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -3081,7 +3079,7 @@
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
     </row>
-    <row r="156" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -3090,7 +3088,7 @@
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
     </row>
-    <row r="157" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -3099,7 +3097,7 @@
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
     </row>
-    <row r="158" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -3108,7 +3106,7 @@
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
     </row>
-    <row r="159" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -3117,7 +3115,7 @@
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
     </row>
-    <row r="160" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -3126,7 +3124,7 @@
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
     </row>
-    <row r="161" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -3135,7 +3133,7 @@
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
     </row>
-    <row r="162" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -3144,7 +3142,7 @@
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
     </row>
-    <row r="163" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -3153,7 +3151,7 @@
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
     </row>
-    <row r="164" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -3162,7 +3160,7 @@
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
     </row>
-    <row r="165" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -3171,7 +3169,7 @@
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
     </row>
-    <row r="166" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -3180,7 +3178,7 @@
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
     </row>
-    <row r="167" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -3189,7 +3187,7 @@
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
     </row>
-    <row r="168" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -3198,7 +3196,7 @@
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
     </row>
-    <row r="169" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -3207,7 +3205,7 @@
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
     </row>
-    <row r="170" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -3216,7 +3214,7 @@
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
     </row>
-    <row r="171" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -3225,7 +3223,7 @@
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
     </row>
-    <row r="172" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -3234,7 +3232,7 @@
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
     </row>
-    <row r="173" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -3243,7 +3241,7 @@
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
     </row>
-    <row r="174" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -3252,7 +3250,7 @@
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
     </row>
-    <row r="175" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -3261,7 +3259,7 @@
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
     </row>
-    <row r="176" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -3270,7 +3268,7 @@
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
     </row>
-    <row r="177" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -3279,7 +3277,7 @@
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
     </row>
-    <row r="178" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -3288,7 +3286,7 @@
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
     </row>
-    <row r="179" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -3297,7 +3295,7 @@
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
     </row>
-    <row r="180" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -3306,7 +3304,7 @@
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
     </row>
-    <row r="181" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -3315,7 +3313,7 @@
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
     </row>
-    <row r="182" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -3324,7 +3322,7 @@
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
     </row>
-    <row r="183" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -3333,7 +3331,7 @@
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
     </row>
-    <row r="184" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -3342,7 +3340,7 @@
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
     </row>
-    <row r="185" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -3351,7 +3349,7 @@
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
     </row>
-    <row r="186" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -3360,7 +3358,7 @@
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
     </row>
-    <row r="187" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -3369,7 +3367,7 @@
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
     </row>
-    <row r="188" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -3378,7 +3376,7 @@
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
     </row>
-    <row r="189" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -3387,7 +3385,7 @@
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
     </row>
-    <row r="190" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -3396,7 +3394,7 @@
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
     </row>
-    <row r="191" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -3405,7 +3403,7 @@
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
     </row>
-    <row r="192" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -3414,7 +3412,7 @@
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
     </row>
-    <row r="193" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -3423,7 +3421,7 @@
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
     </row>
-    <row r="194" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -3432,7 +3430,7 @@
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
     </row>
-    <row r="195" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -3441,7 +3439,7 @@
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
     </row>
-    <row r="196" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -3450,7 +3448,7 @@
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
     </row>
-    <row r="197" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -3459,7 +3457,7 @@
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
     </row>
-    <row r="198" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -3468,7 +3466,7 @@
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
     </row>
-    <row r="199" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -3477,7 +3475,7 @@
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
     </row>
-    <row r="200" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -3486,7 +3484,7 @@
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
     </row>
-    <row r="201" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -3495,7 +3493,7 @@
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
     </row>
-    <row r="202" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -3504,7 +3502,7 @@
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
     </row>
-    <row r="203" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -3513,7 +3511,7 @@
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
     </row>
-    <row r="204" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -3522,7 +3520,7 @@
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
     </row>
-    <row r="205" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -3531,7 +3529,7 @@
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
     </row>
-    <row r="206" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -3540,7 +3538,7 @@
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
     </row>
-    <row r="207" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -3549,7 +3547,7 @@
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
     </row>
-    <row r="208" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -3558,7 +3556,7 @@
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
     </row>
-    <row r="209" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -3567,7 +3565,7 @@
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
     </row>
-    <row r="210" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -3576,7 +3574,7 @@
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
     </row>
-    <row r="211" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -3585,7 +3583,7 @@
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
     </row>
-    <row r="212" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -3594,7 +3592,7 @@
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
     </row>
-    <row r="213" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -3603,7 +3601,7 @@
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
     </row>
-    <row r="214" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -3612,7 +3610,7 @@
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
     </row>
-    <row r="215" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -3621,7 +3619,7 @@
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
     </row>
-    <row r="216" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -3630,7 +3628,7 @@
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
     </row>
-    <row r="217" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -3639,7 +3637,7 @@
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
     </row>
-    <row r="218" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -3648,7 +3646,7 @@
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
     </row>
-    <row r="219" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -3657,7 +3655,7 @@
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
     </row>
-    <row r="220" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -3666,7 +3664,7 @@
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
     </row>
-    <row r="221" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -3675,7 +3673,7 @@
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
     </row>
-    <row r="222" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -3684,7 +3682,7 @@
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
     </row>
-    <row r="223" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -3693,7 +3691,7 @@
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
     </row>
-    <row r="224" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -3702,7 +3700,7 @@
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
     </row>
-    <row r="225" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -3711,7 +3709,7 @@
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
     </row>
-    <row r="226" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -3720,7 +3718,7 @@
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
     </row>
-    <row r="227" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -3729,7 +3727,7 @@
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
     </row>
-    <row r="228" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -3738,7 +3736,7 @@
       <c r="F228" s="5"/>
       <c r="G228" s="5"/>
     </row>
-    <row r="229" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -3747,7 +3745,7 @@
       <c r="F229" s="5"/>
       <c r="G229" s="5"/>
     </row>
-    <row r="230" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -3756,7 +3754,7 @@
       <c r="F230" s="5"/>
       <c r="G230" s="5"/>
     </row>
-    <row r="231" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -3765,7 +3763,7 @@
       <c r="F231" s="5"/>
       <c r="G231" s="5"/>
     </row>
-    <row r="232" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -3774,7 +3772,7 @@
       <c r="F232" s="5"/>
       <c r="G232" s="5"/>
     </row>
-    <row r="233" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -3783,7 +3781,7 @@
       <c r="F233" s="5"/>
       <c r="G233" s="5"/>
     </row>
-    <row r="234" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -3792,7 +3790,7 @@
       <c r="F234" s="5"/>
       <c r="G234" s="5"/>
     </row>
-    <row r="235" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -3801,7 +3799,7 @@
       <c r="F235" s="5"/>
       <c r="G235" s="5"/>
     </row>
-    <row r="236" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -3810,7 +3808,7 @@
       <c r="F236" s="5"/>
       <c r="G236" s="5"/>
     </row>
-    <row r="237" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -3819,7 +3817,7 @@
       <c r="F237" s="5"/>
       <c r="G237" s="5"/>
     </row>
-    <row r="238" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -3828,7 +3826,7 @@
       <c r="F238" s="5"/>
       <c r="G238" s="5"/>
     </row>
-    <row r="239" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -3837,7 +3835,7 @@
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
     </row>
-    <row r="240" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -3846,7 +3844,7 @@
       <c r="F240" s="5"/>
       <c r="G240" s="5"/>
     </row>
-    <row r="241" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -3855,7 +3853,7 @@
       <c r="F241" s="5"/>
       <c r="G241" s="5"/>
     </row>
-    <row r="242" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -3864,7 +3862,7 @@
       <c r="F242" s="5"/>
       <c r="G242" s="5"/>
     </row>
-    <row r="243" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -3873,7 +3871,7 @@
       <c r="F243" s="5"/>
       <c r="G243" s="5"/>
     </row>
-    <row r="244" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -3882,7 +3880,7 @@
       <c r="F244" s="5"/>
       <c r="G244" s="5"/>
     </row>
-    <row r="245" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -3891,7 +3889,7 @@
       <c r="F245" s="5"/>
       <c r="G245" s="5"/>
     </row>
-    <row r="246" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -3900,7 +3898,7 @@
       <c r="F246" s="5"/>
       <c r="G246" s="5"/>
     </row>
-    <row r="247" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -3909,7 +3907,7 @@
       <c r="F247" s="5"/>
       <c r="G247" s="5"/>
     </row>
-    <row r="248" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -3918,7 +3916,7 @@
       <c r="F248" s="5"/>
       <c r="G248" s="5"/>
     </row>
-    <row r="249" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -3927,7 +3925,7 @@
       <c r="F249" s="5"/>
       <c r="G249" s="5"/>
     </row>
-    <row r="250" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -3936,7 +3934,7 @@
       <c r="F250" s="5"/>
       <c r="G250" s="5"/>
     </row>
-    <row r="251" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -3945,7 +3943,7 @@
       <c r="F251" s="5"/>
       <c r="G251" s="5"/>
     </row>
-    <row r="252" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -3954,7 +3952,7 @@
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
     </row>
-    <row r="253" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -3963,7 +3961,7 @@
       <c r="F253" s="5"/>
       <c r="G253" s="5"/>
     </row>
-    <row r="254" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -3972,7 +3970,7 @@
       <c r="F254" s="5"/>
       <c r="G254" s="5"/>
     </row>
-    <row r="255" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -3981,7 +3979,7 @@
       <c r="F255" s="5"/>
       <c r="G255" s="5"/>
     </row>
-    <row r="256" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -3990,7 +3988,7 @@
       <c r="F256" s="5"/>
       <c r="G256" s="5"/>
     </row>
-    <row r="257" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -3999,7 +3997,7 @@
       <c r="F257" s="5"/>
       <c r="G257" s="5"/>
     </row>
-    <row r="258" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -4008,7 +4006,7 @@
       <c r="F258" s="5"/>
       <c r="G258" s="5"/>
     </row>
-    <row r="259" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -4017,7 +4015,7 @@
       <c r="F259" s="5"/>
       <c r="G259" s="5"/>
     </row>
-    <row r="260" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -4026,7 +4024,7 @@
       <c r="F260" s="5"/>
       <c r="G260" s="5"/>
     </row>
-    <row r="261" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -4035,7 +4033,7 @@
       <c r="F261" s="5"/>
       <c r="G261" s="5"/>
     </row>
-    <row r="262" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -4044,7 +4042,7 @@
       <c r="F262" s="5"/>
       <c r="G262" s="5"/>
     </row>
-    <row r="263" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -4053,7 +4051,7 @@
       <c r="F263" s="5"/>
       <c r="G263" s="5"/>
     </row>
-    <row r="264" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -4062,7 +4060,7 @@
       <c r="F264" s="5"/>
       <c r="G264" s="5"/>
     </row>
-    <row r="265" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -4071,7 +4069,7 @@
       <c r="F265" s="5"/>
       <c r="G265" s="5"/>
     </row>
-    <row r="266" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -4080,7 +4078,7 @@
       <c r="F266" s="5"/>
       <c r="G266" s="5"/>
     </row>
-    <row r="267" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -4089,7 +4087,7 @@
       <c r="F267" s="5"/>
       <c r="G267" s="5"/>
     </row>
-    <row r="268" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -4098,7 +4096,7 @@
       <c r="F268" s="5"/>
       <c r="G268" s="5"/>
     </row>
-    <row r="269" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -4107,7 +4105,7 @@
       <c r="F269" s="5"/>
       <c r="G269" s="5"/>
     </row>
-    <row r="270" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -4116,7 +4114,7 @@
       <c r="F270" s="5"/>
       <c r="G270" s="5"/>
     </row>
-    <row r="271" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -4125,7 +4123,7 @@
       <c r="F271" s="5"/>
       <c r="G271" s="5"/>
     </row>
-    <row r="272" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -4134,7 +4132,7 @@
       <c r="F272" s="5"/>
       <c r="G272" s="5"/>
     </row>
-    <row r="273" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -4143,7 +4141,7 @@
       <c r="F273" s="5"/>
       <c r="G273" s="5"/>
     </row>
-    <row r="274" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -4152,7 +4150,7 @@
       <c r="F274" s="5"/>
       <c r="G274" s="5"/>
     </row>
-    <row r="275" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -4161,7 +4159,7 @@
       <c r="F275" s="5"/>
       <c r="G275" s="5"/>
     </row>
-    <row r="276" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -4170,7 +4168,7 @@
       <c r="F276" s="5"/>
       <c r="G276" s="5"/>
     </row>
-    <row r="277" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -4179,7 +4177,7 @@
       <c r="F277" s="5"/>
       <c r="G277" s="5"/>
     </row>
-    <row r="278" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -4188,7 +4186,7 @@
       <c r="F278" s="5"/>
       <c r="G278" s="5"/>
     </row>
-    <row r="279" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -4197,7 +4195,7 @@
       <c r="F279" s="5"/>
       <c r="G279" s="5"/>
     </row>
-    <row r="280" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -4206,7 +4204,7 @@
       <c r="F280" s="5"/>
       <c r="G280" s="5"/>
     </row>
-    <row r="281" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -4215,7 +4213,7 @@
       <c r="F281" s="5"/>
       <c r="G281" s="5"/>
     </row>
-    <row r="282" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -4224,7 +4222,7 @@
       <c r="F282" s="5"/>
       <c r="G282" s="5"/>
     </row>
-    <row r="283" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -4233,7 +4231,7 @@
       <c r="F283" s="5"/>
       <c r="G283" s="5"/>
     </row>
-    <row r="284" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -4242,7 +4240,7 @@
       <c r="F284" s="5"/>
       <c r="G284" s="5"/>
     </row>
-    <row r="285" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -4251,7 +4249,7 @@
       <c r="F285" s="5"/>
       <c r="G285" s="5"/>
     </row>
-    <row r="286" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -4260,7 +4258,7 @@
       <c r="F286" s="5"/>
       <c r="G286" s="5"/>
     </row>
-    <row r="287" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -4269,7 +4267,7 @@
       <c r="F287" s="5"/>
       <c r="G287" s="5"/>
     </row>
-    <row r="288" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -4278,7 +4276,7 @@
       <c r="F288" s="5"/>
       <c r="G288" s="5"/>
     </row>
-    <row r="289" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -4287,7 +4285,7 @@
       <c r="F289" s="5"/>
       <c r="G289" s="5"/>
     </row>
-    <row r="290" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -4296,7 +4294,7 @@
       <c r="F290" s="5"/>
       <c r="G290" s="5"/>
     </row>
-    <row r="291" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -4305,7 +4303,7 @@
       <c r="F291" s="5"/>
       <c r="G291" s="5"/>
     </row>
-    <row r="292" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -4314,7 +4312,7 @@
       <c r="F292" s="5"/>
       <c r="G292" s="5"/>
     </row>
-    <row r="293" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -4323,7 +4321,7 @@
       <c r="F293" s="5"/>
       <c r="G293" s="5"/>
     </row>
-    <row r="294" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -4332,7 +4330,7 @@
       <c r="F294" s="5"/>
       <c r="G294" s="5"/>
     </row>
-    <row r="295" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -4341,7 +4339,7 @@
       <c r="F295" s="5"/>
       <c r="G295" s="5"/>
     </row>
-    <row r="296" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -4350,7 +4348,7 @@
       <c r="F296" s="5"/>
       <c r="G296" s="5"/>
     </row>
-    <row r="297" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -4359,7 +4357,7 @@
       <c r="F297" s="5"/>
       <c r="G297" s="5"/>
     </row>
-    <row r="298" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -4368,7 +4366,7 @@
       <c r="F298" s="5"/>
       <c r="G298" s="5"/>
     </row>
-    <row r="299" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -4377,7 +4375,7 @@
       <c r="F299" s="5"/>
       <c r="G299" s="5"/>
     </row>
-    <row r="300" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -4386,7 +4384,7 @@
       <c r="F300" s="5"/>
       <c r="G300" s="5"/>
     </row>
-    <row r="301" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -4395,7 +4393,7 @@
       <c r="F301" s="5"/>
       <c r="G301" s="5"/>
     </row>
-    <row r="302" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -4404,7 +4402,7 @@
       <c r="F302" s="5"/>
       <c r="G302" s="5"/>
     </row>
-    <row r="303" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -4413,7 +4411,7 @@
       <c r="F303" s="5"/>
       <c r="G303" s="5"/>
     </row>
-    <row r="304" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -4422,7 +4420,7 @@
       <c r="F304" s="5"/>
       <c r="G304" s="5"/>
     </row>
-    <row r="305" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -4431,7 +4429,7 @@
       <c r="F305" s="5"/>
       <c r="G305" s="5"/>
     </row>
-    <row r="306" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -4440,7 +4438,7 @@
       <c r="F306" s="5"/>
       <c r="G306" s="5"/>
     </row>
-    <row r="307" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -4449,7 +4447,7 @@
       <c r="F307" s="5"/>
       <c r="G307" s="5"/>
     </row>
-    <row r="308" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -4458,7 +4456,7 @@
       <c r="F308" s="5"/>
       <c r="G308" s="5"/>
     </row>
-    <row r="309" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -4467,7 +4465,7 @@
       <c r="F309" s="5"/>
       <c r="G309" s="5"/>
     </row>
-    <row r="310" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -4476,7 +4474,7 @@
       <c r="F310" s="5"/>
       <c r="G310" s="5"/>
     </row>
-    <row r="311" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -4485,7 +4483,7 @@
       <c r="F311" s="5"/>
       <c r="G311" s="5"/>
     </row>
-    <row r="312" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -4494,7 +4492,7 @@
       <c r="F312" s="5"/>
       <c r="G312" s="5"/>
     </row>
-    <row r="313" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -4503,7 +4501,7 @@
       <c r="F313" s="5"/>
       <c r="G313" s="5"/>
     </row>
-    <row r="314" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -4512,7 +4510,7 @@
       <c r="F314" s="5"/>
       <c r="G314" s="5"/>
     </row>
-    <row r="315" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -4521,7 +4519,7 @@
       <c r="F315" s="5"/>
       <c r="G315" s="5"/>
     </row>
-    <row r="316" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -4530,7 +4528,7 @@
       <c r="F316" s="5"/>
       <c r="G316" s="5"/>
     </row>
-    <row r="317" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -4539,7 +4537,7 @@
       <c r="F317" s="5"/>
       <c r="G317" s="5"/>
     </row>
-    <row r="318" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -4548,7 +4546,7 @@
       <c r="F318" s="5"/>
       <c r="G318" s="5"/>
     </row>
-    <row r="319" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -4557,7 +4555,7 @@
       <c r="F319" s="5"/>
       <c r="G319" s="5"/>
     </row>
-    <row r="320" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -4566,7 +4564,7 @@
       <c r="F320" s="5"/>
       <c r="G320" s="5"/>
     </row>
-    <row r="321" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -4575,7 +4573,7 @@
       <c r="F321" s="5"/>
       <c r="G321" s="5"/>
     </row>
-    <row r="322" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -4584,7 +4582,7 @@
       <c r="F322" s="5"/>
       <c r="G322" s="5"/>
     </row>
-    <row r="323" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
@@ -4593,7 +4591,7 @@
       <c r="F323" s="5"/>
       <c r="G323" s="5"/>
     </row>
-    <row r="324" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -4602,7 +4600,7 @@
       <c r="F324" s="5"/>
       <c r="G324" s="5"/>
     </row>
-    <row r="325" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
@@ -4611,7 +4609,7 @@
       <c r="F325" s="5"/>
       <c r="G325" s="5"/>
     </row>
-    <row r="326" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -4620,7 +4618,7 @@
       <c r="F326" s="5"/>
       <c r="G326" s="5"/>
     </row>
-    <row r="327" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
@@ -4629,7 +4627,7 @@
       <c r="F327" s="5"/>
       <c r="G327" s="5"/>
     </row>
-    <row r="328" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
@@ -4638,7 +4636,7 @@
       <c r="F328" s="5"/>
       <c r="G328" s="5"/>
     </row>
-    <row r="329" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
@@ -4647,7 +4645,7 @@
       <c r="F329" s="5"/>
       <c r="G329" s="5"/>
     </row>
-    <row r="330" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
@@ -4656,7 +4654,7 @@
       <c r="F330" s="5"/>
       <c r="G330" s="5"/>
     </row>
-    <row r="331" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
@@ -4665,7 +4663,7 @@
       <c r="F331" s="5"/>
       <c r="G331" s="5"/>
     </row>
-    <row r="332" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -4674,7 +4672,7 @@
       <c r="F332" s="5"/>
       <c r="G332" s="5"/>
     </row>
-    <row r="333" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
@@ -4683,7 +4681,7 @@
       <c r="F333" s="5"/>
       <c r="G333" s="5"/>
     </row>
-    <row r="334" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -4692,7 +4690,7 @@
       <c r="F334" s="5"/>
       <c r="G334" s="5"/>
     </row>
-    <row r="335" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -4701,7 +4699,7 @@
       <c r="F335" s="5"/>
       <c r="G335" s="5"/>
     </row>
-    <row r="336" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
@@ -4710,7 +4708,7 @@
       <c r="F336" s="5"/>
       <c r="G336" s="5"/>
     </row>
-    <row r="337" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -4719,7 +4717,7 @@
       <c r="F337" s="5"/>
       <c r="G337" s="5"/>
     </row>
-    <row r="338" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -4728,7 +4726,7 @@
       <c r="F338" s="5"/>
       <c r="G338" s="5"/>
     </row>
-    <row r="339" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
@@ -4737,7 +4735,7 @@
       <c r="F339" s="5"/>
       <c r="G339" s="5"/>
     </row>
-    <row r="340" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -4746,7 +4744,7 @@
       <c r="F340" s="5"/>
       <c r="G340" s="5"/>
     </row>
-    <row r="341" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -4755,7 +4753,7 @@
       <c r="F341" s="5"/>
       <c r="G341" s="5"/>
     </row>
-    <row r="342" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -4764,7 +4762,7 @@
       <c r="F342" s="5"/>
       <c r="G342" s="5"/>
     </row>
-    <row r="343" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -4773,7 +4771,7 @@
       <c r="F343" s="5"/>
       <c r="G343" s="5"/>
     </row>
-    <row r="344" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -4782,7 +4780,7 @@
       <c r="F344" s="5"/>
       <c r="G344" s="5"/>
     </row>
-    <row r="345" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
@@ -4791,7 +4789,7 @@
       <c r="F345" s="5"/>
       <c r="G345" s="5"/>
     </row>
-    <row r="346" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
@@ -4800,7 +4798,7 @@
       <c r="F346" s="5"/>
       <c r="G346" s="5"/>
     </row>
-    <row r="347" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
@@ -4809,7 +4807,7 @@
       <c r="F347" s="5"/>
       <c r="G347" s="5"/>
     </row>
-    <row r="348" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
@@ -4818,7 +4816,7 @@
       <c r="F348" s="5"/>
       <c r="G348" s="5"/>
     </row>
-    <row r="349" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
@@ -4827,7 +4825,7 @@
       <c r="F349" s="5"/>
       <c r="G349" s="5"/>
     </row>
-    <row r="350" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
@@ -4836,7 +4834,7 @@
       <c r="F350" s="5"/>
       <c r="G350" s="5"/>
     </row>
-    <row r="351" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
@@ -4845,7 +4843,7 @@
       <c r="F351" s="5"/>
       <c r="G351" s="5"/>
     </row>
-    <row r="352" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -4854,7 +4852,7 @@
       <c r="F352" s="5"/>
       <c r="G352" s="5"/>
     </row>
-    <row r="353" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
@@ -4863,7 +4861,7 @@
       <c r="F353" s="5"/>
       <c r="G353" s="5"/>
     </row>
-    <row r="354" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -4872,7 +4870,7 @@
       <c r="F354" s="5"/>
       <c r="G354" s="5"/>
     </row>
-    <row r="355" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
@@ -4881,7 +4879,7 @@
       <c r="F355" s="5"/>
       <c r="G355" s="5"/>
     </row>
-    <row r="356" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
@@ -4890,7 +4888,7 @@
       <c r="F356" s="5"/>
       <c r="G356" s="5"/>
     </row>
-    <row r="357" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
@@ -4899,7 +4897,7 @@
       <c r="F357" s="5"/>
       <c r="G357" s="5"/>
     </row>
-    <row r="358" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
@@ -4908,7 +4906,7 @@
       <c r="F358" s="5"/>
       <c r="G358" s="5"/>
     </row>
-    <row r="359" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
@@ -4917,7 +4915,7 @@
       <c r="F359" s="5"/>
       <c r="G359" s="5"/>
     </row>
-    <row r="360" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -4926,7 +4924,7 @@
       <c r="F360" s="5"/>
       <c r="G360" s="5"/>
     </row>
-    <row r="361" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
@@ -4935,7 +4933,7 @@
       <c r="F361" s="5"/>
       <c r="G361" s="5"/>
     </row>
-    <row r="362" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -4944,7 +4942,7 @@
       <c r="F362" s="5"/>
       <c r="G362" s="5"/>
     </row>
-    <row r="363" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -4953,7 +4951,7 @@
       <c r="F363" s="5"/>
       <c r="G363" s="5"/>
     </row>
-    <row r="364" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
@@ -4962,7 +4960,7 @@
       <c r="F364" s="5"/>
       <c r="G364" s="5"/>
     </row>
-    <row r="365" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
@@ -4971,7 +4969,7 @@
       <c r="F365" s="5"/>
       <c r="G365" s="5"/>
     </row>
-    <row r="366" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
@@ -4980,7 +4978,7 @@
       <c r="F366" s="5"/>
       <c r="G366" s="5"/>
     </row>
-    <row r="367" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
@@ -4989,7 +4987,7 @@
       <c r="F367" s="5"/>
       <c r="G367" s="5"/>
     </row>
-    <row r="368" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
@@ -4998,7 +4996,7 @@
       <c r="F368" s="5"/>
       <c r="G368" s="5"/>
     </row>
-    <row r="369" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
@@ -5007,7 +5005,7 @@
       <c r="F369" s="5"/>
       <c r="G369" s="5"/>
     </row>
-    <row r="370" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -5016,7 +5014,7 @@
       <c r="F370" s="5"/>
       <c r="G370" s="5"/>
     </row>
-    <row r="371" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -5025,7 +5023,7 @@
       <c r="F371" s="5"/>
       <c r="G371" s="5"/>
     </row>
-    <row r="372" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
@@ -5034,7 +5032,7 @@
       <c r="F372" s="5"/>
       <c r="G372" s="5"/>
     </row>
-    <row r="373" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
@@ -5043,7 +5041,7 @@
       <c r="F373" s="5"/>
       <c r="G373" s="5"/>
     </row>
-    <row r="374" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
@@ -5052,7 +5050,7 @@
       <c r="F374" s="5"/>
       <c r="G374" s="5"/>
     </row>
-    <row r="375" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
@@ -5061,7 +5059,7 @@
       <c r="F375" s="5"/>
       <c r="G375" s="5"/>
     </row>
-    <row r="376" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
@@ -5070,7 +5068,7 @@
       <c r="F376" s="5"/>
       <c r="G376" s="5"/>
     </row>
-    <row r="377" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
@@ -5079,7 +5077,7 @@
       <c r="F377" s="5"/>
       <c r="G377" s="5"/>
     </row>
-    <row r="378" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
@@ -5088,7 +5086,7 @@
       <c r="F378" s="5"/>
       <c r="G378" s="5"/>
     </row>
-    <row r="379" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -5097,7 +5095,7 @@
       <c r="F379" s="5"/>
       <c r="G379" s="5"/>
     </row>
-    <row r="380" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
@@ -5106,7 +5104,7 @@
       <c r="F380" s="5"/>
       <c r="G380" s="5"/>
     </row>
-    <row r="381" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
@@ -5115,7 +5113,7 @@
       <c r="F381" s="5"/>
       <c r="G381" s="5"/>
     </row>
-    <row r="382" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
@@ -5124,7 +5122,7 @@
       <c r="F382" s="5"/>
       <c r="G382" s="5"/>
     </row>
-    <row r="383" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
@@ -5133,7 +5131,7 @@
       <c r="F383" s="5"/>
       <c r="G383" s="5"/>
     </row>
-    <row r="384" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
@@ -5142,7 +5140,7 @@
       <c r="F384" s="5"/>
       <c r="G384" s="5"/>
     </row>
-    <row r="385" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
@@ -5151,7 +5149,7 @@
       <c r="F385" s="5"/>
       <c r="G385" s="5"/>
     </row>
-    <row r="386" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
@@ -5160,7 +5158,7 @@
       <c r="F386" s="5"/>
       <c r="G386" s="5"/>
     </row>
-    <row r="387" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
@@ -5169,7 +5167,7 @@
       <c r="F387" s="5"/>
       <c r="G387" s="5"/>
     </row>
-    <row r="388" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
@@ -5178,7 +5176,7 @@
       <c r="F388" s="5"/>
       <c r="G388" s="5"/>
     </row>
-    <row r="389" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
@@ -5187,7 +5185,7 @@
       <c r="F389" s="5"/>
       <c r="G389" s="5"/>
     </row>
-    <row r="390" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
@@ -5196,7 +5194,7 @@
       <c r="F390" s="5"/>
       <c r="G390" s="5"/>
     </row>
-    <row r="391" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
@@ -5205,7 +5203,7 @@
       <c r="F391" s="5"/>
       <c r="G391" s="5"/>
     </row>
-    <row r="392" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
@@ -5214,7 +5212,7 @@
       <c r="F392" s="5"/>
       <c r="G392" s="5"/>
     </row>
-    <row r="393" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
@@ -5223,7 +5221,7 @@
       <c r="F393" s="5"/>
       <c r="G393" s="5"/>
     </row>
-    <row r="394" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
@@ -5232,7 +5230,7 @@
       <c r="F394" s="5"/>
       <c r="G394" s="5"/>
     </row>
-    <row r="395" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
@@ -5241,7 +5239,7 @@
       <c r="F395" s="5"/>
       <c r="G395" s="5"/>
     </row>
-    <row r="396" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
@@ -5250,7 +5248,7 @@
       <c r="F396" s="5"/>
       <c r="G396" s="5"/>
     </row>
-    <row r="397" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
@@ -5259,7 +5257,7 @@
       <c r="F397" s="5"/>
       <c r="G397" s="5"/>
     </row>
-    <row r="398" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
@@ -5268,7 +5266,7 @@
       <c r="F398" s="5"/>
       <c r="G398" s="5"/>
     </row>
-    <row r="399" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
@@ -5277,7 +5275,7 @@
       <c r="F399" s="5"/>
       <c r="G399" s="5"/>
     </row>
-    <row r="400" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
@@ -5286,7 +5284,7 @@
       <c r="F400" s="5"/>
       <c r="G400" s="5"/>
     </row>
-    <row r="401" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
@@ -5295,7 +5293,7 @@
       <c r="F401" s="5"/>
       <c r="G401" s="5"/>
     </row>
-    <row r="402" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
@@ -5304,7 +5302,7 @@
       <c r="F402" s="5"/>
       <c r="G402" s="5"/>
     </row>
-    <row r="403" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
@@ -5313,7 +5311,7 @@
       <c r="F403" s="5"/>
       <c r="G403" s="5"/>
     </row>
-    <row r="404" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
@@ -5322,7 +5320,7 @@
       <c r="F404" s="5"/>
       <c r="G404" s="5"/>
     </row>
-    <row r="405" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
@@ -5331,7 +5329,7 @@
       <c r="F405" s="5"/>
       <c r="G405" s="5"/>
     </row>
-    <row r="406" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
@@ -5340,7 +5338,7 @@
       <c r="F406" s="5"/>
       <c r="G406" s="5"/>
     </row>
-    <row r="407" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
@@ -5349,7 +5347,7 @@
       <c r="F407" s="5"/>
       <c r="G407" s="5"/>
     </row>
-    <row r="408" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
@@ -5358,7 +5356,7 @@
       <c r="F408" s="5"/>
       <c r="G408" s="5"/>
     </row>
-    <row r="409" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
@@ -5367,7 +5365,7 @@
       <c r="F409" s="5"/>
       <c r="G409" s="5"/>
     </row>
-    <row r="410" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
@@ -5376,7 +5374,7 @@
       <c r="F410" s="5"/>
       <c r="G410" s="5"/>
     </row>
-    <row r="411" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
@@ -5385,7 +5383,7 @@
       <c r="F411" s="5"/>
       <c r="G411" s="5"/>
     </row>
-    <row r="412" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
@@ -5394,7 +5392,7 @@
       <c r="F412" s="5"/>
       <c r="G412" s="5"/>
     </row>
-    <row r="413" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
@@ -5403,7 +5401,7 @@
       <c r="F413" s="5"/>
       <c r="G413" s="5"/>
     </row>
-    <row r="414" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
@@ -5412,7 +5410,7 @@
       <c r="F414" s="5"/>
       <c r="G414" s="5"/>
     </row>
-    <row r="415" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
@@ -5421,7 +5419,7 @@
       <c r="F415" s="5"/>
       <c r="G415" s="5"/>
     </row>
-    <row r="416" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
@@ -5430,7 +5428,7 @@
       <c r="F416" s="5"/>
       <c r="G416" s="5"/>
     </row>
-    <row r="417" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
@@ -5439,7 +5437,7 @@
       <c r="F417" s="5"/>
       <c r="G417" s="5"/>
     </row>
-    <row r="418" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
@@ -5448,7 +5446,7 @@
       <c r="F418" s="5"/>
       <c r="G418" s="5"/>
     </row>
-    <row r="419" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
@@ -5457,7 +5455,7 @@
       <c r="F419" s="5"/>
       <c r="G419" s="5"/>
     </row>
-    <row r="420" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
@@ -5466,7 +5464,7 @@
       <c r="F420" s="5"/>
       <c r="G420" s="5"/>
     </row>
-    <row r="421" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
@@ -5475,7 +5473,7 @@
       <c r="F421" s="5"/>
       <c r="G421" s="5"/>
     </row>
-    <row r="422" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
@@ -5484,7 +5482,7 @@
       <c r="F422" s="5"/>
       <c r="G422" s="5"/>
     </row>
-    <row r="423" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
@@ -5493,7 +5491,7 @@
       <c r="F423" s="5"/>
       <c r="G423" s="5"/>
     </row>
-    <row r="424" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
@@ -5502,7 +5500,7 @@
       <c r="F424" s="5"/>
       <c r="G424" s="5"/>
     </row>
-    <row r="425" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
@@ -5511,7 +5509,7 @@
       <c r="F425" s="5"/>
       <c r="G425" s="5"/>
     </row>
-    <row r="426" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
@@ -5520,7 +5518,7 @@
       <c r="F426" s="5"/>
       <c r="G426" s="5"/>
     </row>
-    <row r="427" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
@@ -5529,7 +5527,7 @@
       <c r="F427" s="5"/>
       <c r="G427" s="5"/>
     </row>
-    <row r="428" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
@@ -5538,7 +5536,7 @@
       <c r="F428" s="5"/>
       <c r="G428" s="5"/>
     </row>
-    <row r="429" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
@@ -5547,7 +5545,7 @@
       <c r="F429" s="5"/>
       <c r="G429" s="5"/>
     </row>
-    <row r="430" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
@@ -5556,7 +5554,7 @@
       <c r="F430" s="5"/>
       <c r="G430" s="5"/>
     </row>
-    <row r="431" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
@@ -5565,7 +5563,7 @@
       <c r="F431" s="5"/>
       <c r="G431" s="5"/>
     </row>
-    <row r="432" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
@@ -5574,7 +5572,7 @@
       <c r="F432" s="5"/>
       <c r="G432" s="5"/>
     </row>
-    <row r="433" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="5"/>
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
@@ -5583,7 +5581,7 @@
       <c r="F433" s="5"/>
       <c r="G433" s="5"/>
     </row>
-    <row r="434" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
@@ -5592,7 +5590,7 @@
       <c r="F434" s="5"/>
       <c r="G434" s="5"/>
     </row>
-    <row r="435" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="5"/>
       <c r="B435" s="5"/>
       <c r="C435" s="5"/>
@@ -5601,7 +5599,7 @@
       <c r="F435" s="5"/>
       <c r="G435" s="5"/>
     </row>
-    <row r="436" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="5"/>
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
@@ -5610,7 +5608,7 @@
       <c r="F436" s="5"/>
       <c r="G436" s="5"/>
     </row>
-    <row r="437" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
       <c r="C437" s="5"/>
@@ -5619,7 +5617,7 @@
       <c r="F437" s="5"/>
       <c r="G437" s="5"/>
     </row>
-    <row r="438" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="5"/>
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
@@ -5628,7 +5626,7 @@
       <c r="F438" s="5"/>
       <c r="G438" s="5"/>
     </row>
-    <row r="439" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="5"/>
       <c r="B439" s="5"/>
       <c r="C439" s="5"/>
@@ -5637,7 +5635,7 @@
       <c r="F439" s="5"/>
       <c r="G439" s="5"/>
     </row>
-    <row r="440" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="5"/>
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
@@ -5646,7 +5644,7 @@
       <c r="F440" s="5"/>
       <c r="G440" s="5"/>
     </row>
-    <row r="441" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="5"/>
       <c r="B441" s="5"/>
       <c r="C441" s="5"/>
@@ -5655,7 +5653,7 @@
       <c r="F441" s="5"/>
       <c r="G441" s="5"/>
     </row>
-    <row r="442" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="5"/>
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
@@ -5664,7 +5662,7 @@
       <c r="F442" s="5"/>
       <c r="G442" s="5"/>
     </row>
-    <row r="443" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="5"/>
       <c r="B443" s="5"/>
       <c r="C443" s="5"/>
@@ -5673,7 +5671,7 @@
       <c r="F443" s="5"/>
       <c r="G443" s="5"/>
     </row>
-    <row r="444" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="5"/>
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
@@ -5682,7 +5680,7 @@
       <c r="F444" s="5"/>
       <c r="G444" s="5"/>
     </row>
-    <row r="445" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
       <c r="C445" s="5"/>
@@ -5691,7 +5689,7 @@
       <c r="F445" s="5"/>
       <c r="G445" s="5"/>
     </row>
-    <row r="446" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="5"/>
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
@@ -5700,7 +5698,7 @@
       <c r="F446" s="5"/>
       <c r="G446" s="5"/>
     </row>
-    <row r="447" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="5"/>
       <c r="B447" s="5"/>
       <c r="C447" s="5"/>
@@ -5709,7 +5707,7 @@
       <c r="F447" s="5"/>
       <c r="G447" s="5"/>
     </row>
-    <row r="448" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="5"/>
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>
@@ -5718,7 +5716,7 @@
       <c r="F448" s="5"/>
       <c r="G448" s="5"/>
     </row>
-    <row r="449" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="5"/>
       <c r="B449" s="5"/>
       <c r="C449" s="5"/>
@@ -5727,7 +5725,7 @@
       <c r="F449" s="5"/>
       <c r="G449" s="5"/>
     </row>
-    <row r="450" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="5"/>
       <c r="B450" s="5"/>
       <c r="C450" s="5"/>
@@ -5736,7 +5734,7 @@
       <c r="F450" s="5"/>
       <c r="G450" s="5"/>
     </row>
-    <row r="451" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="5"/>
       <c r="B451" s="5"/>
       <c r="C451" s="5"/>
@@ -5745,7 +5743,7 @@
       <c r="F451" s="5"/>
       <c r="G451" s="5"/>
     </row>
-    <row r="452" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="5"/>
       <c r="B452" s="5"/>
       <c r="C452" s="5"/>
@@ -5754,7 +5752,7 @@
       <c r="F452" s="5"/>
       <c r="G452" s="5"/>
     </row>
-    <row r="453" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="5"/>
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
@@ -5763,7 +5761,7 @@
       <c r="F453" s="5"/>
       <c r="G453" s="5"/>
     </row>
-    <row r="454" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="5"/>
       <c r="B454" s="5"/>
       <c r="C454" s="5"/>
@@ -5772,7 +5770,7 @@
       <c r="F454" s="5"/>
       <c r="G454" s="5"/>
     </row>
-    <row r="455" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="5"/>
       <c r="B455" s="5"/>
       <c r="C455" s="5"/>
@@ -5781,7 +5779,7 @@
       <c r="F455" s="5"/>
       <c r="G455" s="5"/>
     </row>
-    <row r="456" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="5"/>
       <c r="B456" s="5"/>
       <c r="C456" s="5"/>
@@ -5790,7 +5788,7 @@
       <c r="F456" s="5"/>
       <c r="G456" s="5"/>
     </row>
-    <row r="457" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="5"/>
       <c r="B457" s="5"/>
       <c r="C457" s="5"/>
@@ -5799,7 +5797,7 @@
       <c r="F457" s="5"/>
       <c r="G457" s="5"/>
     </row>
-    <row r="458" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="5"/>
       <c r="B458" s="5"/>
       <c r="C458" s="5"/>
@@ -5808,7 +5806,7 @@
       <c r="F458" s="5"/>
       <c r="G458" s="5"/>
     </row>
-    <row r="459" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="5"/>
       <c r="B459" s="5"/>
       <c r="C459" s="5"/>
@@ -5817,7 +5815,7 @@
       <c r="F459" s="5"/>
       <c r="G459" s="5"/>
     </row>
-    <row r="460" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="5"/>
       <c r="B460" s="5"/>
       <c r="C460" s="5"/>
@@ -5826,7 +5824,7 @@
       <c r="F460" s="5"/>
       <c r="G460" s="5"/>
     </row>
-    <row r="461" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="5"/>
       <c r="B461" s="5"/>
       <c r="C461" s="5"/>
@@ -5835,7 +5833,7 @@
       <c r="F461" s="5"/>
       <c r="G461" s="5"/>
     </row>
-    <row r="462" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="5"/>
       <c r="B462" s="5"/>
       <c r="C462" s="5"/>
@@ -5844,7 +5842,7 @@
       <c r="F462" s="5"/>
       <c r="G462" s="5"/>
     </row>
-    <row r="463" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="5"/>
       <c r="B463" s="5"/>
       <c r="C463" s="5"/>
@@ -5853,7 +5851,7 @@
       <c r="F463" s="5"/>
       <c r="G463" s="5"/>
     </row>
-    <row r="464" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="5"/>
       <c r="B464" s="5"/>
       <c r="C464" s="5"/>
@@ -5862,7 +5860,7 @@
       <c r="F464" s="5"/>
       <c r="G464" s="5"/>
     </row>
-    <row r="465" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="5"/>
       <c r="B465" s="5"/>
       <c r="C465" s="5"/>
@@ -5871,7 +5869,7 @@
       <c r="F465" s="5"/>
       <c r="G465" s="5"/>
     </row>
-    <row r="466" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="5"/>
       <c r="B466" s="5"/>
       <c r="C466" s="5"/>
@@ -5880,7 +5878,7 @@
       <c r="F466" s="5"/>
       <c r="G466" s="5"/>
     </row>
-    <row r="467" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="5"/>
       <c r="B467" s="5"/>
       <c r="C467" s="5"/>
@@ -5889,7 +5887,7 @@
       <c r="F467" s="5"/>
       <c r="G467" s="5"/>
     </row>
-    <row r="468" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="5"/>
       <c r="B468" s="5"/>
       <c r="C468" s="5"/>
@@ -5898,7 +5896,7 @@
       <c r="F468" s="5"/>
       <c r="G468" s="5"/>
     </row>
-    <row r="469" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="5"/>
       <c r="B469" s="5"/>
       <c r="C469" s="5"/>
@@ -5907,7 +5905,7 @@
       <c r="F469" s="5"/>
       <c r="G469" s="5"/>
     </row>
-    <row r="470" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="5"/>
       <c r="B470" s="5"/>
       <c r="C470" s="5"/>
@@ -5916,7 +5914,7 @@
       <c r="F470" s="5"/>
       <c r="G470" s="5"/>
     </row>
-    <row r="471" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="5"/>
       <c r="B471" s="5"/>
       <c r="C471" s="5"/>
@@ -5925,7 +5923,7 @@
       <c r="F471" s="5"/>
       <c r="G471" s="5"/>
     </row>
-    <row r="472" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="5"/>
       <c r="B472" s="5"/>
       <c r="C472" s="5"/>
@@ -5934,7 +5932,7 @@
       <c r="F472" s="5"/>
       <c r="G472" s="5"/>
     </row>
-    <row r="473" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="5"/>
       <c r="B473" s="5"/>
       <c r="C473" s="5"/>
@@ -5943,7 +5941,7 @@
       <c r="F473" s="5"/>
       <c r="G473" s="5"/>
     </row>
-    <row r="474" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="5"/>
       <c r="B474" s="5"/>
       <c r="C474" s="5"/>
@@ -5952,7 +5950,7 @@
       <c r="F474" s="5"/>
       <c r="G474" s="5"/>
     </row>
-    <row r="475" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="5"/>
       <c r="B475" s="5"/>
       <c r="C475" s="5"/>
@@ -5961,7 +5959,7 @@
       <c r="F475" s="5"/>
       <c r="G475" s="5"/>
     </row>
-    <row r="476" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="5"/>
       <c r="B476" s="5"/>
       <c r="C476" s="5"/>
@@ -5970,7 +5968,7 @@
       <c r="F476" s="5"/>
       <c r="G476" s="5"/>
     </row>
-    <row r="477" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="5"/>
       <c r="B477" s="5"/>
       <c r="C477" s="5"/>
@@ -5979,7 +5977,7 @@
       <c r="F477" s="5"/>
       <c r="G477" s="5"/>
     </row>
-    <row r="478" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="5"/>
       <c r="B478" s="5"/>
       <c r="C478" s="5"/>
@@ -5988,7 +5986,7 @@
       <c r="F478" s="5"/>
       <c r="G478" s="5"/>
     </row>
-    <row r="479" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="5"/>
       <c r="B479" s="5"/>
       <c r="C479" s="5"/>
@@ -5997,7 +5995,7 @@
       <c r="F479" s="5"/>
       <c r="G479" s="5"/>
     </row>
-    <row r="480" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="5"/>
       <c r="B480" s="5"/>
       <c r="C480" s="5"/>
@@ -6006,7 +6004,7 @@
       <c r="F480" s="5"/>
       <c r="G480" s="5"/>
     </row>
-    <row r="481" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="5"/>
       <c r="B481" s="5"/>
       <c r="C481" s="5"/>
@@ -6015,7 +6013,7 @@
       <c r="F481" s="5"/>
       <c r="G481" s="5"/>
     </row>
-    <row r="482" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="5"/>
       <c r="B482" s="5"/>
       <c r="C482" s="5"/>
@@ -6024,7 +6022,7 @@
       <c r="F482" s="5"/>
       <c r="G482" s="5"/>
     </row>
-    <row r="483" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="5"/>
       <c r="B483" s="5"/>
       <c r="C483" s="5"/>
@@ -6033,7 +6031,7 @@
       <c r="F483" s="5"/>
       <c r="G483" s="5"/>
     </row>
-    <row r="484" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="5"/>
       <c r="B484" s="5"/>
       <c r="C484" s="5"/>
@@ -6042,7 +6040,7 @@
       <c r="F484" s="5"/>
       <c r="G484" s="5"/>
     </row>
-    <row r="485" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="5"/>
       <c r="B485" s="5"/>
       <c r="C485" s="5"/>
@@ -6051,7 +6049,7 @@
       <c r="F485" s="5"/>
       <c r="G485" s="5"/>
     </row>
-    <row r="486" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="5"/>
       <c r="B486" s="5"/>
       <c r="C486" s="5"/>
@@ -6060,7 +6058,7 @@
       <c r="F486" s="5"/>
       <c r="G486" s="5"/>
     </row>
-    <row r="487" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="5"/>
       <c r="B487" s="5"/>
       <c r="C487" s="5"/>
@@ -6069,7 +6067,7 @@
       <c r="F487" s="5"/>
       <c r="G487" s="5"/>
     </row>
-    <row r="488" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="5"/>
       <c r="B488" s="5"/>
       <c r="C488" s="5"/>
@@ -6078,7 +6076,7 @@
       <c r="F488" s="5"/>
       <c r="G488" s="5"/>
     </row>
-    <row r="489" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="5"/>
       <c r="B489" s="5"/>
       <c r="C489" s="5"/>
@@ -6087,7 +6085,7 @@
       <c r="F489" s="5"/>
       <c r="G489" s="5"/>
     </row>
-    <row r="490" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="5"/>
       <c r="B490" s="5"/>
       <c r="C490" s="5"/>
@@ -6096,7 +6094,7 @@
       <c r="F490" s="5"/>
       <c r="G490" s="5"/>
     </row>
-    <row r="491" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="5"/>
       <c r="B491" s="5"/>
       <c r="C491" s="5"/>
@@ -6105,7 +6103,7 @@
       <c r="F491" s="5"/>
       <c r="G491" s="5"/>
     </row>
-    <row r="492" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="5"/>
       <c r="B492" s="5"/>
       <c r="C492" s="5"/>
@@ -6114,7 +6112,7 @@
       <c r="F492" s="5"/>
       <c r="G492" s="5"/>
     </row>
-    <row r="493" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="5"/>
       <c r="B493" s="5"/>
       <c r="C493" s="5"/>
@@ -6123,7 +6121,7 @@
       <c r="F493" s="5"/>
       <c r="G493" s="5"/>
     </row>
-    <row r="494" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="5"/>
       <c r="B494" s="5"/>
       <c r="C494" s="5"/>
@@ -6132,7 +6130,7 @@
       <c r="F494" s="5"/>
       <c r="G494" s="5"/>
     </row>
-    <row r="495" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="5"/>
       <c r="B495" s="5"/>
       <c r="C495" s="5"/>
@@ -6141,7 +6139,7 @@
       <c r="F495" s="5"/>
       <c r="G495" s="5"/>
     </row>
-    <row r="496" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="5"/>
       <c r="B496" s="5"/>
       <c r="C496" s="5"/>
@@ -6150,7 +6148,7 @@
       <c r="F496" s="5"/>
       <c r="G496" s="5"/>
     </row>
-    <row r="497" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="5"/>
       <c r="B497" s="5"/>
       <c r="C497" s="5"/>
@@ -6159,7 +6157,7 @@
       <c r="F497" s="5"/>
       <c r="G497" s="5"/>
     </row>
-    <row r="498" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="5"/>
       <c r="B498" s="5"/>
       <c r="C498" s="5"/>
@@ -6168,7 +6166,7 @@
       <c r="F498" s="5"/>
       <c r="G498" s="5"/>
     </row>
-    <row r="499" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="5"/>
       <c r="B499" s="5"/>
       <c r="C499" s="5"/>
@@ -6177,7 +6175,7 @@
       <c r="F499" s="5"/>
       <c r="G499" s="5"/>
     </row>
-    <row r="500" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="5"/>
       <c r="B500" s="5"/>
       <c r="C500" s="5"/>
@@ -6186,7 +6184,7 @@
       <c r="F500" s="5"/>
       <c r="G500" s="5"/>
     </row>
-    <row r="501" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="5"/>
       <c r="B501" s="5"/>
       <c r="C501" s="5"/>
@@ -6195,7 +6193,7 @@
       <c r="F501" s="5"/>
       <c r="G501" s="5"/>
     </row>
-    <row r="502" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="5"/>
       <c r="B502" s="5"/>
       <c r="C502" s="5"/>
@@ -6204,7 +6202,7 @@
       <c r="F502" s="5"/>
       <c r="G502" s="5"/>
     </row>
-    <row r="503" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="5"/>
       <c r="B503" s="5"/>
       <c r="C503" s="5"/>
@@ -6213,7 +6211,7 @@
       <c r="F503" s="5"/>
       <c r="G503" s="5"/>
     </row>
-    <row r="504" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="5"/>
       <c r="B504" s="5"/>
       <c r="C504" s="5"/>
@@ -6222,7 +6220,7 @@
       <c r="F504" s="5"/>
       <c r="G504" s="5"/>
     </row>
-    <row r="505" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="5"/>
       <c r="B505" s="5"/>
       <c r="C505" s="5"/>
@@ -6231,7 +6229,7 @@
       <c r="F505" s="5"/>
       <c r="G505" s="5"/>
     </row>
-    <row r="506" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="5"/>
       <c r="B506" s="5"/>
       <c r="C506" s="5"/>
@@ -6240,7 +6238,7 @@
       <c r="F506" s="5"/>
       <c r="G506" s="5"/>
     </row>
-    <row r="507" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="5"/>
       <c r="B507" s="5"/>
       <c r="C507" s="5"/>
@@ -6249,7 +6247,7 @@
       <c r="F507" s="5"/>
       <c r="G507" s="5"/>
     </row>
-    <row r="508" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="5"/>
       <c r="B508" s="5"/>
       <c r="C508" s="5"/>
@@ -6258,7 +6256,7 @@
       <c r="F508" s="5"/>
       <c r="G508" s="5"/>
     </row>
-    <row r="509" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="5"/>
       <c r="B509" s="5"/>
       <c r="C509" s="5"/>
@@ -6267,7 +6265,7 @@
       <c r="F509" s="5"/>
       <c r="G509" s="5"/>
     </row>
-    <row r="510" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="5"/>
       <c r="B510" s="5"/>
       <c r="C510" s="5"/>
@@ -6276,7 +6274,7 @@
       <c r="F510" s="5"/>
       <c r="G510" s="5"/>
     </row>
-    <row r="511" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="5"/>
       <c r="B511" s="5"/>
       <c r="C511" s="5"/>
@@ -6285,7 +6283,7 @@
       <c r="F511" s="5"/>
       <c r="G511" s="5"/>
     </row>
-    <row r="512" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="5"/>
       <c r="B512" s="5"/>
       <c r="C512" s="5"/>
@@ -6294,7 +6292,7 @@
       <c r="F512" s="5"/>
       <c r="G512" s="5"/>
     </row>
-    <row r="513" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="5"/>
       <c r="B513" s="5"/>
       <c r="C513" s="5"/>
@@ -6303,7 +6301,7 @@
       <c r="F513" s="5"/>
       <c r="G513" s="5"/>
     </row>
-    <row r="514" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="5"/>
       <c r="B514" s="5"/>
       <c r="C514" s="5"/>
@@ -6312,7 +6310,7 @@
       <c r="F514" s="5"/>
       <c r="G514" s="5"/>
     </row>
-    <row r="515" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="5"/>
       <c r="B515" s="5"/>
       <c r="C515" s="5"/>
@@ -6321,7 +6319,7 @@
       <c r="F515" s="5"/>
       <c r="G515" s="5"/>
     </row>
-    <row r="516" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="5"/>
       <c r="B516" s="5"/>
       <c r="C516" s="5"/>
@@ -6330,7 +6328,7 @@
       <c r="F516" s="5"/>
       <c r="G516" s="5"/>
     </row>
-    <row r="517" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="5"/>
       <c r="B517" s="5"/>
       <c r="C517" s="5"/>
@@ -6339,7 +6337,7 @@
       <c r="F517" s="5"/>
       <c r="G517" s="5"/>
     </row>
-    <row r="518" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="5"/>
       <c r="B518" s="5"/>
       <c r="C518" s="5"/>
@@ -6348,7 +6346,7 @@
       <c r="F518" s="5"/>
       <c r="G518" s="5"/>
     </row>
-    <row r="519" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="5"/>
       <c r="B519" s="5"/>
       <c r="C519" s="5"/>
@@ -6357,7 +6355,7 @@
       <c r="F519" s="5"/>
       <c r="G519" s="5"/>
     </row>
-    <row r="520" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="5"/>
       <c r="B520" s="5"/>
       <c r="C520" s="5"/>
@@ -6366,7 +6364,7 @@
       <c r="F520" s="5"/>
       <c r="G520" s="5"/>
     </row>
-    <row r="521" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="5"/>
       <c r="B521" s="5"/>
       <c r="C521" s="5"/>
@@ -6375,7 +6373,7 @@
       <c r="F521" s="5"/>
       <c r="G521" s="5"/>
     </row>
-    <row r="522" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="5"/>
       <c r="B522" s="5"/>
       <c r="C522" s="5"/>
@@ -6384,7 +6382,7 @@
       <c r="F522" s="5"/>
       <c r="G522" s="5"/>
     </row>
-    <row r="523" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="5"/>
       <c r="B523" s="5"/>
       <c r="C523" s="5"/>
@@ -6393,7 +6391,7 @@
       <c r="F523" s="5"/>
       <c r="G523" s="5"/>
     </row>
-    <row r="524" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="5"/>
       <c r="B524" s="5"/>
       <c r="C524" s="5"/>
@@ -6402,7 +6400,7 @@
       <c r="F524" s="5"/>
       <c r="G524" s="5"/>
     </row>
-    <row r="525" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="5"/>
       <c r="B525" s="5"/>
       <c r="C525" s="5"/>
@@ -6411,7 +6409,7 @@
       <c r="F525" s="5"/>
       <c r="G525" s="5"/>
     </row>
-    <row r="526" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="5"/>
       <c r="B526" s="5"/>
       <c r="C526" s="5"/>
@@ -6420,7 +6418,7 @@
       <c r="F526" s="5"/>
       <c r="G526" s="5"/>
     </row>
-    <row r="527" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="5"/>
       <c r="B527" s="5"/>
       <c r="C527" s="5"/>
@@ -6429,7 +6427,7 @@
       <c r="F527" s="5"/>
       <c r="G527" s="5"/>
     </row>
-    <row r="528" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="5"/>
       <c r="B528" s="5"/>
       <c r="C528" s="5"/>
@@ -6438,7 +6436,7 @@
       <c r="F528" s="5"/>
       <c r="G528" s="5"/>
     </row>
-    <row r="529" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="5"/>
       <c r="B529" s="5"/>
       <c r="C529" s="5"/>
@@ -6447,7 +6445,7 @@
       <c r="F529" s="5"/>
       <c r="G529" s="5"/>
     </row>
-    <row r="530" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="5"/>
       <c r="B530" s="5"/>
       <c r="C530" s="5"/>
@@ -6456,7 +6454,7 @@
       <c r="F530" s="5"/>
       <c r="G530" s="5"/>
     </row>
-    <row r="531" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="5"/>
       <c r="B531" s="5"/>
       <c r="C531" s="5"/>
@@ -6465,7 +6463,7 @@
       <c r="F531" s="5"/>
       <c r="G531" s="5"/>
     </row>
-    <row r="532" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="5"/>
       <c r="B532" s="5"/>
       <c r="C532" s="5"/>
@@ -6474,7 +6472,7 @@
       <c r="F532" s="5"/>
       <c r="G532" s="5"/>
     </row>
-    <row r="533" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="5"/>
       <c r="B533" s="5"/>
       <c r="C533" s="5"/>
@@ -6483,7 +6481,7 @@
       <c r="F533" s="5"/>
       <c r="G533" s="5"/>
     </row>
-    <row r="534" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="5"/>
       <c r="B534" s="5"/>
       <c r="C534" s="5"/>
@@ -6492,7 +6490,7 @@
       <c r="F534" s="5"/>
       <c r="G534" s="5"/>
     </row>
-    <row r="535" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="5"/>
       <c r="B535" s="5"/>
       <c r="C535" s="5"/>
@@ -6501,7 +6499,7 @@
       <c r="F535" s="5"/>
       <c r="G535" s="5"/>
     </row>
-    <row r="536" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="5"/>
       <c r="B536" s="5"/>
       <c r="C536" s="5"/>
@@ -6510,7 +6508,7 @@
       <c r="F536" s="5"/>
       <c r="G536" s="5"/>
     </row>
-    <row r="537" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="5"/>
       <c r="B537" s="5"/>
       <c r="C537" s="5"/>
@@ -6519,7 +6517,7 @@
       <c r="F537" s="5"/>
       <c r="G537" s="5"/>
     </row>
-    <row r="538" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="5"/>
       <c r="B538" s="5"/>
       <c r="C538" s="5"/>
@@ -6528,7 +6526,7 @@
       <c r="F538" s="5"/>
       <c r="G538" s="5"/>
     </row>
-    <row r="539" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="5"/>
       <c r="B539" s="5"/>
       <c r="C539" s="5"/>
@@ -6537,7 +6535,7 @@
       <c r="F539" s="5"/>
       <c r="G539" s="5"/>
     </row>
-    <row r="540" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="5"/>
       <c r="B540" s="5"/>
       <c r="C540" s="5"/>
@@ -6546,7 +6544,7 @@
       <c r="F540" s="5"/>
       <c r="G540" s="5"/>
     </row>
-    <row r="541" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="5"/>
       <c r="B541" s="5"/>
       <c r="C541" s="5"/>
@@ -6555,7 +6553,7 @@
       <c r="F541" s="5"/>
       <c r="G541" s="5"/>
     </row>
-    <row r="542" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="5"/>
       <c r="B542" s="5"/>
       <c r="C542" s="5"/>
@@ -6564,7 +6562,7 @@
       <c r="F542" s="5"/>
       <c r="G542" s="5"/>
     </row>
-    <row r="543" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="5"/>
       <c r="B543" s="5"/>
       <c r="C543" s="5"/>
@@ -6573,7 +6571,7 @@
       <c r="F543" s="5"/>
       <c r="G543" s="5"/>
     </row>
-    <row r="544" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="5"/>
       <c r="B544" s="5"/>
       <c r="C544" s="5"/>
@@ -6582,7 +6580,7 @@
       <c r="F544" s="5"/>
       <c r="G544" s="5"/>
     </row>
-    <row r="545" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="5"/>
       <c r="B545" s="5"/>
       <c r="C545" s="5"/>
@@ -6591,7 +6589,7 @@
       <c r="F545" s="5"/>
       <c r="G545" s="5"/>
     </row>
-    <row r="546" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="5"/>
       <c r="B546" s="5"/>
       <c r="C546" s="5"/>
@@ -6600,7 +6598,7 @@
       <c r="F546" s="5"/>
       <c r="G546" s="5"/>
     </row>
-    <row r="547" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="5"/>
       <c r="B547" s="5"/>
       <c r="C547" s="5"/>
@@ -6609,7 +6607,7 @@
       <c r="F547" s="5"/>
       <c r="G547" s="5"/>
     </row>
-    <row r="548" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="5"/>
       <c r="B548" s="5"/>
       <c r="C548" s="5"/>
@@ -6618,7 +6616,7 @@
       <c r="F548" s="5"/>
       <c r="G548" s="5"/>
     </row>
-    <row r="549" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="5"/>
       <c r="B549" s="5"/>
       <c r="C549" s="5"/>
@@ -6627,7 +6625,7 @@
       <c r="F549" s="5"/>
       <c r="G549" s="5"/>
     </row>
-    <row r="550" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="5"/>
       <c r="B550" s="5"/>
       <c r="C550" s="5"/>
@@ -6636,7 +6634,7 @@
       <c r="F550" s="5"/>
       <c r="G550" s="5"/>
     </row>
-    <row r="551" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A551" s="5"/>
       <c r="B551" s="5"/>
       <c r="C551" s="5"/>
@@ -6645,7 +6643,7 @@
       <c r="F551" s="5"/>
       <c r="G551" s="5"/>
     </row>
-    <row r="552" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A552" s="5"/>
       <c r="B552" s="5"/>
       <c r="C552" s="5"/>
@@ -6654,7 +6652,7 @@
       <c r="F552" s="5"/>
       <c r="G552" s="5"/>
     </row>
-    <row r="553" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A553" s="5"/>
       <c r="B553" s="5"/>
       <c r="C553" s="5"/>
@@ -6663,7 +6661,7 @@
       <c r="F553" s="5"/>
       <c r="G553" s="5"/>
     </row>
-    <row r="554" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A554" s="5"/>
       <c r="B554" s="5"/>
       <c r="C554" s="5"/>
@@ -6672,7 +6670,7 @@
       <c r="F554" s="5"/>
       <c r="G554" s="5"/>
     </row>
-    <row r="555" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="5"/>
       <c r="B555" s="5"/>
       <c r="C555" s="5"/>
@@ -6681,7 +6679,7 @@
       <c r="F555" s="5"/>
       <c r="G555" s="5"/>
     </row>
-    <row r="556" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="5"/>
       <c r="B556" s="5"/>
       <c r="C556" s="5"/>
@@ -6690,7 +6688,7 @@
       <c r="F556" s="5"/>
       <c r="G556" s="5"/>
     </row>
-    <row r="557" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A557" s="5"/>
       <c r="B557" s="5"/>
       <c r="C557" s="5"/>
@@ -6699,7 +6697,7 @@
       <c r="F557" s="5"/>
       <c r="G557" s="5"/>
     </row>
-    <row r="558" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="5"/>
       <c r="B558" s="5"/>
       <c r="C558" s="5"/>
@@ -6708,7 +6706,7 @@
       <c r="F558" s="5"/>
       <c r="G558" s="5"/>
     </row>
-    <row r="559" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A559" s="5"/>
       <c r="B559" s="5"/>
       <c r="C559" s="5"/>
@@ -6717,7 +6715,7 @@
       <c r="F559" s="5"/>
       <c r="G559" s="5"/>
     </row>
-    <row r="560" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="5"/>
       <c r="B560" s="5"/>
       <c r="C560" s="5"/>
@@ -6726,7 +6724,7 @@
       <c r="F560" s="5"/>
       <c r="G560" s="5"/>
     </row>
-    <row r="561" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="5"/>
       <c r="B561" s="5"/>
       <c r="C561" s="5"/>
@@ -6735,7 +6733,7 @@
       <c r="F561" s="5"/>
       <c r="G561" s="5"/>
     </row>
-    <row r="562" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="5"/>
       <c r="B562" s="5"/>
       <c r="C562" s="5"/>
@@ -6744,7 +6742,7 @@
       <c r="F562" s="5"/>
       <c r="G562" s="5"/>
     </row>
-    <row r="563" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A563" s="5"/>
       <c r="B563" s="5"/>
       <c r="C563" s="5"/>
@@ -6753,7 +6751,7 @@
       <c r="F563" s="5"/>
       <c r="G563" s="5"/>
     </row>
-    <row r="564" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="5"/>
       <c r="B564" s="5"/>
       <c r="C564" s="5"/>
@@ -6762,7 +6760,7 @@
       <c r="F564" s="5"/>
       <c r="G564" s="5"/>
     </row>
-    <row r="565" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A565" s="5"/>
       <c r="B565" s="5"/>
       <c r="C565" s="5"/>
@@ -6771,7 +6769,7 @@
       <c r="F565" s="5"/>
       <c r="G565" s="5"/>
     </row>
-    <row r="566" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="5"/>
       <c r="B566" s="5"/>
       <c r="C566" s="5"/>
@@ -6780,7 +6778,7 @@
       <c r="F566" s="5"/>
       <c r="G566" s="5"/>
     </row>
-    <row r="567" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A567" s="5"/>
       <c r="B567" s="5"/>
       <c r="C567" s="5"/>
@@ -6789,7 +6787,7 @@
       <c r="F567" s="5"/>
       <c r="G567" s="5"/>
     </row>
-    <row r="568" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A568" s="5"/>
       <c r="B568" s="5"/>
       <c r="C568" s="5"/>
@@ -6798,7 +6796,7 @@
       <c r="F568" s="5"/>
       <c r="G568" s="5"/>
     </row>
-    <row r="569" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A569" s="5"/>
       <c r="B569" s="5"/>
       <c r="C569" s="5"/>
@@ -6807,7 +6805,7 @@
       <c r="F569" s="5"/>
       <c r="G569" s="5"/>
     </row>
-    <row r="570" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A570" s="5"/>
       <c r="B570" s="5"/>
       <c r="C570" s="5"/>
@@ -6816,7 +6814,7 @@
       <c r="F570" s="5"/>
       <c r="G570" s="5"/>
     </row>
-    <row r="571" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A571" s="5"/>
       <c r="B571" s="5"/>
       <c r="C571" s="5"/>
@@ -6825,7 +6823,7 @@
       <c r="F571" s="5"/>
       <c r="G571" s="5"/>
     </row>
-    <row r="572" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="5"/>
       <c r="B572" s="5"/>
       <c r="C572" s="5"/>
@@ -6834,7 +6832,7 @@
       <c r="F572" s="5"/>
       <c r="G572" s="5"/>
     </row>
-    <row r="573" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A573" s="5"/>
       <c r="B573" s="5"/>
       <c r="C573" s="5"/>
@@ -6843,7 +6841,7 @@
       <c r="F573" s="5"/>
       <c r="G573" s="5"/>
     </row>
-    <row r="574" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="5"/>
       <c r="B574" s="5"/>
       <c r="C574" s="5"/>
@@ -6852,7 +6850,7 @@
       <c r="F574" s="5"/>
       <c r="G574" s="5"/>
     </row>
-    <row r="575" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A575" s="5"/>
       <c r="B575" s="5"/>
       <c r="C575" s="5"/>
@@ -6861,7 +6859,7 @@
       <c r="F575" s="5"/>
       <c r="G575" s="5"/>
     </row>
-    <row r="576" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A576" s="5"/>
       <c r="B576" s="5"/>
       <c r="C576" s="5"/>
@@ -6870,7 +6868,7 @@
       <c r="F576" s="5"/>
       <c r="G576" s="5"/>
     </row>
-    <row r="577" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A577" s="5"/>
       <c r="B577" s="5"/>
       <c r="C577" s="5"/>
@@ -6879,7 +6877,7 @@
       <c r="F577" s="5"/>
       <c r="G577" s="5"/>
     </row>
-    <row r="578" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="5"/>
       <c r="B578" s="5"/>
       <c r="C578" s="5"/>
@@ -6888,7 +6886,7 @@
       <c r="F578" s="5"/>
       <c r="G578" s="5"/>
     </row>
-    <row r="579" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A579" s="5"/>
       <c r="B579" s="5"/>
       <c r="C579" s="5"/>
@@ -6897,7 +6895,7 @@
       <c r="F579" s="5"/>
       <c r="G579" s="5"/>
     </row>
-    <row r="580" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A580" s="5"/>
       <c r="B580" s="5"/>
       <c r="C580" s="5"/>
@@ -6906,7 +6904,7 @@
       <c r="F580" s="5"/>
       <c r="G580" s="5"/>
     </row>
-    <row r="581" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A581" s="5"/>
       <c r="B581" s="5"/>
       <c r="C581" s="5"/>
@@ -6915,7 +6913,7 @@
       <c r="F581" s="5"/>
       <c r="G581" s="5"/>
     </row>
-    <row r="582" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A582" s="5"/>
       <c r="B582" s="5"/>
       <c r="C582" s="5"/>
@@ -6924,7 +6922,7 @@
       <c r="F582" s="5"/>
       <c r="G582" s="5"/>
     </row>
-    <row r="583" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A583" s="5"/>
       <c r="B583" s="5"/>
       <c r="C583" s="5"/>
@@ -6933,7 +6931,7 @@
       <c r="F583" s="5"/>
       <c r="G583" s="5"/>
     </row>
-    <row r="584" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A584" s="5"/>
       <c r="B584" s="5"/>
       <c r="C584" s="5"/>
@@ -6942,7 +6940,7 @@
       <c r="F584" s="5"/>
       <c r="G584" s="5"/>
     </row>
-    <row r="585" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A585" s="5"/>
       <c r="B585" s="5"/>
       <c r="C585" s="5"/>
@@ -6951,7 +6949,7 @@
       <c r="F585" s="5"/>
       <c r="G585" s="5"/>
     </row>
-    <row r="586" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A586" s="5"/>
       <c r="B586" s="5"/>
       <c r="C586" s="5"/>
@@ -6960,7 +6958,7 @@
       <c r="F586" s="5"/>
       <c r="G586" s="5"/>
     </row>
-    <row r="587" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A587" s="5"/>
       <c r="B587" s="5"/>
       <c r="C587" s="5"/>
@@ -6969,7 +6967,7 @@
       <c r="F587" s="5"/>
       <c r="G587" s="5"/>
     </row>
-    <row r="588" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A588" s="5"/>
       <c r="B588" s="5"/>
       <c r="C588" s="5"/>
@@ -6978,7 +6976,7 @@
       <c r="F588" s="5"/>
       <c r="G588" s="5"/>
     </row>
-    <row r="589" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A589" s="5"/>
       <c r="B589" s="5"/>
       <c r="C589" s="5"/>
@@ -6987,7 +6985,7 @@
       <c r="F589" s="5"/>
       <c r="G589" s="5"/>
     </row>
-    <row r="590" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A590" s="5"/>
       <c r="B590" s="5"/>
       <c r="C590" s="5"/>
@@ -6996,7 +6994,7 @@
       <c r="F590" s="5"/>
       <c r="G590" s="5"/>
     </row>
-    <row r="591" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="5"/>
       <c r="B591" s="5"/>
       <c r="C591" s="5"/>
@@ -7005,7 +7003,7 @@
       <c r="F591" s="5"/>
       <c r="G591" s="5"/>
     </row>
-    <row r="592" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A592" s="5"/>
       <c r="B592" s="5"/>
       <c r="C592" s="5"/>
@@ -7014,7 +7012,7 @@
       <c r="F592" s="5"/>
       <c r="G592" s="5"/>
     </row>
-    <row r="593" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A593" s="5"/>
       <c r="B593" s="5"/>
       <c r="C593" s="5"/>
@@ -7023,7 +7021,7 @@
       <c r="F593" s="5"/>
       <c r="G593" s="5"/>
     </row>
-    <row r="594" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A594" s="5"/>
       <c r="B594" s="5"/>
       <c r="C594" s="5"/>
@@ -7032,7 +7030,7 @@
       <c r="F594" s="5"/>
       <c r="G594" s="5"/>
     </row>
-    <row r="595" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="5"/>
       <c r="B595" s="5"/>
       <c r="C595" s="5"/>
@@ -7041,7 +7039,7 @@
       <c r="F595" s="5"/>
       <c r="G595" s="5"/>
     </row>
-    <row r="596" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A596" s="5"/>
       <c r="B596" s="5"/>
       <c r="C596" s="5"/>
@@ -7050,7 +7048,7 @@
       <c r="F596" s="5"/>
       <c r="G596" s="5"/>
     </row>
-    <row r="597" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A597" s="5"/>
       <c r="B597" s="5"/>
       <c r="C597" s="5"/>
@@ -7059,7 +7057,7 @@
       <c r="F597" s="5"/>
       <c r="G597" s="5"/>
     </row>
-    <row r="598" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A598" s="5"/>
       <c r="B598" s="5"/>
       <c r="C598" s="5"/>
@@ -7068,7 +7066,7 @@
       <c r="F598" s="5"/>
       <c r="G598" s="5"/>
     </row>
-    <row r="599" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A599" s="5"/>
       <c r="B599" s="5"/>
       <c r="C599" s="5"/>
@@ -7077,7 +7075,7 @@
       <c r="F599" s="5"/>
       <c r="G599" s="5"/>
     </row>
-    <row r="600" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="5"/>
       <c r="B600" s="5"/>
       <c r="C600" s="5"/>
@@ -7086,7 +7084,7 @@
       <c r="F600" s="5"/>
       <c r="G600" s="5"/>
     </row>
-    <row r="601" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A601" s="5"/>
       <c r="B601" s="5"/>
       <c r="C601" s="5"/>
@@ -7095,7 +7093,7 @@
       <c r="F601" s="5"/>
       <c r="G601" s="5"/>
     </row>
-    <row r="602" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A602" s="5"/>
       <c r="B602" s="5"/>
       <c r="C602" s="5"/>
@@ -7104,7 +7102,7 @@
       <c r="F602" s="5"/>
       <c r="G602" s="5"/>
     </row>
-    <row r="603" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A603" s="5"/>
       <c r="B603" s="5"/>
       <c r="C603" s="5"/>
@@ -7113,7 +7111,7 @@
       <c r="F603" s="5"/>
       <c r="G603" s="5"/>
     </row>
-    <row r="604" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A604" s="5"/>
       <c r="B604" s="5"/>
       <c r="C604" s="5"/>
@@ -7122,7 +7120,7 @@
       <c r="F604" s="5"/>
       <c r="G604" s="5"/>
     </row>
-    <row r="605" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="5"/>
       <c r="B605" s="5"/>
       <c r="C605" s="5"/>
@@ -7131,7 +7129,7 @@
       <c r="F605" s="5"/>
       <c r="G605" s="5"/>
     </row>
-    <row r="606" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A606" s="5"/>
       <c r="B606" s="5"/>
       <c r="C606" s="5"/>
@@ -7140,7 +7138,7 @@
       <c r="F606" s="5"/>
       <c r="G606" s="5"/>
     </row>
-    <row r="607" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A607" s="5"/>
       <c r="B607" s="5"/>
       <c r="C607" s="5"/>
@@ -7149,7 +7147,7 @@
       <c r="F607" s="5"/>
       <c r="G607" s="5"/>
     </row>
-    <row r="608" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A608" s="5"/>
       <c r="B608" s="5"/>
       <c r="C608" s="5"/>
@@ -7158,7 +7156,7 @@
       <c r="F608" s="5"/>
       <c r="G608" s="5"/>
     </row>
-    <row r="609" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="5"/>
       <c r="B609" s="5"/>
       <c r="C609" s="5"/>
@@ -7167,7 +7165,7 @@
       <c r="F609" s="5"/>
       <c r="G609" s="5"/>
     </row>
-    <row r="610" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A610" s="5"/>
       <c r="B610" s="5"/>
       <c r="C610" s="5"/>
@@ -7176,7 +7174,7 @@
       <c r="F610" s="5"/>
       <c r="G610" s="5"/>
     </row>
-    <row r="611" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A611" s="5"/>
       <c r="B611" s="5"/>
       <c r="C611" s="5"/>
@@ -7185,7 +7183,7 @@
       <c r="F611" s="5"/>
       <c r="G611" s="5"/>
     </row>
-    <row r="612" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A612" s="5"/>
       <c r="B612" s="5"/>
       <c r="C612" s="5"/>
@@ -7194,7 +7192,7 @@
       <c r="F612" s="5"/>
       <c r="G612" s="5"/>
     </row>
-    <row r="613" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="5"/>
       <c r="B613" s="5"/>
       <c r="C613" s="5"/>
@@ -7203,7 +7201,7 @@
       <c r="F613" s="5"/>
       <c r="G613" s="5"/>
     </row>
-    <row r="614" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A614" s="5"/>
       <c r="B614" s="5"/>
       <c r="C614" s="5"/>
@@ -7212,7 +7210,7 @@
       <c r="F614" s="5"/>
       <c r="G614" s="5"/>
     </row>
-    <row r="615" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A615" s="5"/>
       <c r="B615" s="5"/>
       <c r="C615" s="5"/>
@@ -7221,7 +7219,7 @@
       <c r="F615" s="5"/>
       <c r="G615" s="5"/>
     </row>
-    <row r="616" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A616" s="5"/>
       <c r="B616" s="5"/>
       <c r="C616" s="5"/>
@@ -7230,7 +7228,7 @@
       <c r="F616" s="5"/>
       <c r="G616" s="5"/>
     </row>
-    <row r="617" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A617" s="5"/>
       <c r="B617" s="5"/>
       <c r="C617" s="5"/>
@@ -7239,7 +7237,7 @@
       <c r="F617" s="5"/>
       <c r="G617" s="5"/>
     </row>
-    <row r="618" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A618" s="5"/>
       <c r="B618" s="5"/>
       <c r="C618" s="5"/>
@@ -7248,7 +7246,7 @@
       <c r="F618" s="5"/>
       <c r="G618" s="5"/>
     </row>
-    <row r="619" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A619" s="5"/>
       <c r="B619" s="5"/>
       <c r="C619" s="5"/>
@@ -7257,7 +7255,7 @@
       <c r="F619" s="5"/>
       <c r="G619" s="5"/>
     </row>
-    <row r="620" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="5"/>
       <c r="B620" s="5"/>
       <c r="C620" s="5"/>
@@ -7266,7 +7264,7 @@
       <c r="F620" s="5"/>
       <c r="G620" s="5"/>
     </row>
-    <row r="621" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="5"/>
       <c r="B621" s="5"/>
       <c r="C621" s="5"/>
@@ -7275,7 +7273,7 @@
       <c r="F621" s="5"/>
       <c r="G621" s="5"/>
     </row>
-    <row r="622" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A622" s="5"/>
       <c r="B622" s="5"/>
       <c r="C622" s="5"/>
@@ -7284,7 +7282,7 @@
       <c r="F622" s="5"/>
       <c r="G622" s="5"/>
     </row>
-    <row r="623" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A623" s="5"/>
       <c r="B623" s="5"/>
       <c r="C623" s="5"/>
@@ -7293,7 +7291,7 @@
       <c r="F623" s="5"/>
       <c r="G623" s="5"/>
     </row>
-    <row r="624" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A624" s="5"/>
       <c r="B624" s="5"/>
       <c r="C624" s="5"/>
@@ -7302,7 +7300,7 @@
       <c r="F624" s="5"/>
       <c r="G624" s="5"/>
     </row>
-    <row r="625" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="5"/>
       <c r="B625" s="5"/>
       <c r="C625" s="5"/>
@@ -7311,7 +7309,7 @@
       <c r="F625" s="5"/>
       <c r="G625" s="5"/>
     </row>
-    <row r="626" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="5"/>
       <c r="B626" s="5"/>
       <c r="C626" s="5"/>
@@ -7320,7 +7318,7 @@
       <c r="F626" s="5"/>
       <c r="G626" s="5"/>
     </row>
-    <row r="627" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A627" s="5"/>
       <c r="B627" s="5"/>
       <c r="C627" s="5"/>
@@ -7329,7 +7327,7 @@
       <c r="F627" s="5"/>
       <c r="G627" s="5"/>
     </row>
-    <row r="628" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A628" s="5"/>
       <c r="B628" s="5"/>
       <c r="C628" s="5"/>
@@ -7338,7 +7336,7 @@
       <c r="F628" s="5"/>
       <c r="G628" s="5"/>
     </row>
-    <row r="629" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="5"/>
       <c r="B629" s="5"/>
       <c r="C629" s="5"/>
@@ -7347,7 +7345,7 @@
       <c r="F629" s="5"/>
       <c r="G629" s="5"/>
     </row>
-    <row r="630" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="5"/>
       <c r="B630" s="5"/>
       <c r="C630" s="5"/>
@@ -7356,7 +7354,7 @@
       <c r="F630" s="5"/>
       <c r="G630" s="5"/>
     </row>
-    <row r="631" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="5"/>
       <c r="B631" s="5"/>
       <c r="C631" s="5"/>
@@ -7365,7 +7363,7 @@
       <c r="F631" s="5"/>
       <c r="G631" s="5"/>
     </row>
-    <row r="632" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="5"/>
       <c r="B632" s="5"/>
       <c r="C632" s="5"/>
@@ -7374,7 +7372,7 @@
       <c r="F632" s="5"/>
       <c r="G632" s="5"/>
     </row>
-    <row r="633" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A633" s="5"/>
       <c r="B633" s="5"/>
       <c r="C633" s="5"/>
@@ -7383,7 +7381,7 @@
       <c r="F633" s="5"/>
       <c r="G633" s="5"/>
     </row>
-    <row r="634" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A634" s="5"/>
       <c r="B634" s="5"/>
       <c r="C634" s="5"/>
@@ -7392,7 +7390,7 @@
       <c r="F634" s="5"/>
       <c r="G634" s="5"/>
     </row>
-    <row r="635" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A635" s="5"/>
       <c r="B635" s="5"/>
       <c r="C635" s="5"/>
@@ -7401,7 +7399,7 @@
       <c r="F635" s="5"/>
       <c r="G635" s="5"/>
     </row>
-    <row r="636" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A636" s="5"/>
       <c r="B636" s="5"/>
       <c r="C636" s="5"/>
@@ -7410,7 +7408,7 @@
       <c r="F636" s="5"/>
       <c r="G636" s="5"/>
     </row>
-    <row r="637" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A637" s="5"/>
       <c r="B637" s="5"/>
       <c r="C637" s="5"/>
@@ -7419,7 +7417,7 @@
       <c r="F637" s="5"/>
       <c r="G637" s="5"/>
     </row>
-    <row r="638" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A638" s="5"/>
       <c r="B638" s="5"/>
       <c r="C638" s="5"/>
@@ -7428,7 +7426,7 @@
       <c r="F638" s="5"/>
       <c r="G638" s="5"/>
     </row>
-    <row r="639" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A639" s="5"/>
       <c r="B639" s="5"/>
       <c r="C639" s="5"/>
@@ -7437,7 +7435,7 @@
       <c r="F639" s="5"/>
       <c r="G639" s="5"/>
     </row>
-    <row r="640" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A640" s="5"/>
       <c r="B640" s="5"/>
       <c r="C640" s="5"/>
@@ -7446,7 +7444,7 @@
       <c r="F640" s="5"/>
       <c r="G640" s="5"/>
     </row>
-    <row r="641" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="5"/>
       <c r="B641" s="5"/>
       <c r="C641" s="5"/>
@@ -7455,7 +7453,7 @@
       <c r="F641" s="5"/>
       <c r="G641" s="5"/>
     </row>
-    <row r="642" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A642" s="5"/>
       <c r="B642" s="5"/>
       <c r="C642" s="5"/>
@@ -7464,7 +7462,7 @@
       <c r="F642" s="5"/>
       <c r="G642" s="5"/>
     </row>
-    <row r="643" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="5"/>
       <c r="B643" s="5"/>
       <c r="C643" s="5"/>
@@ -7473,7 +7471,7 @@
       <c r="F643" s="5"/>
       <c r="G643" s="5"/>
     </row>
-    <row r="644" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="5"/>
       <c r="B644" s="5"/>
       <c r="C644" s="5"/>
@@ -7482,7 +7480,7 @@
       <c r="F644" s="5"/>
       <c r="G644" s="5"/>
     </row>
-    <row r="645" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A645" s="5"/>
       <c r="B645" s="5"/>
       <c r="C645" s="5"/>
@@ -7491,7 +7489,7 @@
       <c r="F645" s="5"/>
       <c r="G645" s="5"/>
     </row>
-    <row r="646" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="5"/>
       <c r="B646" s="5"/>
       <c r="C646" s="5"/>
@@ -7500,7 +7498,7 @@
       <c r="F646" s="5"/>
       <c r="G646" s="5"/>
     </row>
-    <row r="647" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A647" s="5"/>
       <c r="B647" s="5"/>
       <c r="C647" s="5"/>
@@ -7509,7 +7507,7 @@
       <c r="F647" s="5"/>
       <c r="G647" s="5"/>
     </row>
-    <row r="648" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A648" s="5"/>
       <c r="B648" s="5"/>
       <c r="C648" s="5"/>
@@ -7518,7 +7516,7 @@
       <c r="F648" s="5"/>
       <c r="G648" s="5"/>
     </row>
-    <row r="649" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="5"/>
       <c r="B649" s="5"/>
       <c r="C649" s="5"/>
@@ -7527,7 +7525,7 @@
       <c r="F649" s="5"/>
       <c r="G649" s="5"/>
     </row>
-    <row r="650" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A650" s="5"/>
       <c r="B650" s="5"/>
       <c r="C650" s="5"/>
@@ -7536,7 +7534,7 @@
       <c r="F650" s="5"/>
       <c r="G650" s="5"/>
     </row>
-    <row r="651" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A651" s="5"/>
       <c r="B651" s="5"/>
       <c r="C651" s="5"/>
@@ -7545,7 +7543,7 @@
       <c r="F651" s="5"/>
       <c r="G651" s="5"/>
     </row>
-    <row r="652" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A652" s="5"/>
       <c r="B652" s="5"/>
       <c r="C652" s="5"/>
@@ -7554,7 +7552,7 @@
       <c r="F652" s="5"/>
       <c r="G652" s="5"/>
     </row>
-    <row r="653" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="5"/>
       <c r="B653" s="5"/>
       <c r="C653" s="5"/>
@@ -7563,7 +7561,7 @@
       <c r="F653" s="5"/>
       <c r="G653" s="5"/>
     </row>
-    <row r="654" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A654" s="5"/>
       <c r="B654" s="5"/>
       <c r="C654" s="5"/>
@@ -7572,7 +7570,7 @@
       <c r="F654" s="5"/>
       <c r="G654" s="5"/>
     </row>
-    <row r="655" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A655" s="5"/>
       <c r="B655" s="5"/>
       <c r="C655" s="5"/>
@@ -7581,7 +7579,7 @@
       <c r="F655" s="5"/>
       <c r="G655" s="5"/>
     </row>
-    <row r="656" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A656" s="5"/>
       <c r="B656" s="5"/>
       <c r="C656" s="5"/>
@@ -7590,7 +7588,7 @@
       <c r="F656" s="5"/>
       <c r="G656" s="5"/>
     </row>
-    <row r="657" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A657" s="5"/>
       <c r="B657" s="5"/>
       <c r="C657" s="5"/>
@@ -7599,7 +7597,7 @@
       <c r="F657" s="5"/>
       <c r="G657" s="5"/>
     </row>
-    <row r="658" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A658" s="5"/>
       <c r="B658" s="5"/>
       <c r="C658" s="5"/>
@@ -7608,7 +7606,7 @@
       <c r="F658" s="5"/>
       <c r="G658" s="5"/>
     </row>
-    <row r="659" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A659" s="5"/>
       <c r="B659" s="5"/>
       <c r="C659" s="5"/>
@@ -7617,7 +7615,7 @@
       <c r="F659" s="5"/>
       <c r="G659" s="5"/>
     </row>
-    <row r="660" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A660" s="5"/>
       <c r="B660" s="5"/>
       <c r="C660" s="5"/>
@@ -7626,7 +7624,7 @@
       <c r="F660" s="5"/>
       <c r="G660" s="5"/>
     </row>
-    <row r="661" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A661" s="5"/>
       <c r="B661" s="5"/>
       <c r="C661" s="5"/>
@@ -7635,7 +7633,7 @@
       <c r="F661" s="5"/>
       <c r="G661" s="5"/>
     </row>
-    <row r="662" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A662" s="5"/>
       <c r="B662" s="5"/>
       <c r="C662" s="5"/>
@@ -7644,7 +7642,7 @@
       <c r="F662" s="5"/>
       <c r="G662" s="5"/>
     </row>
-    <row r="663" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A663" s="5"/>
       <c r="B663" s="5"/>
       <c r="C663" s="5"/>
@@ -7653,7 +7651,7 @@
       <c r="F663" s="5"/>
       <c r="G663" s="5"/>
     </row>
-    <row r="664" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A664" s="5"/>
       <c r="B664" s="5"/>
       <c r="C664" s="5"/>
@@ -7662,7 +7660,7 @@
       <c r="F664" s="5"/>
       <c r="G664" s="5"/>
     </row>
-    <row r="665" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A665" s="5"/>
       <c r="B665" s="5"/>
       <c r="C665" s="5"/>
@@ -7671,7 +7669,7 @@
       <c r="F665" s="5"/>
       <c r="G665" s="5"/>
     </row>
-    <row r="666" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A666" s="5"/>
       <c r="B666" s="5"/>
       <c r="C666" s="5"/>
@@ -7680,7 +7678,7 @@
       <c r="F666" s="5"/>
       <c r="G666" s="5"/>
     </row>
-    <row r="667" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A667" s="5"/>
       <c r="B667" s="5"/>
       <c r="C667" s="5"/>
@@ -7689,7 +7687,7 @@
       <c r="F667" s="5"/>
       <c r="G667" s="5"/>
     </row>
-    <row r="668" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A668" s="5"/>
       <c r="B668" s="5"/>
       <c r="C668" s="5"/>
@@ -7698,7 +7696,7 @@
       <c r="F668" s="5"/>
       <c r="G668" s="5"/>
     </row>
-    <row r="669" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A669" s="5"/>
       <c r="B669" s="5"/>
       <c r="C669" s="5"/>
@@ -7707,7 +7705,7 @@
       <c r="F669" s="5"/>
       <c r="G669" s="5"/>
     </row>
-    <row r="670" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="5"/>
       <c r="B670" s="5"/>
       <c r="C670" s="5"/>
@@ -7716,7 +7714,7 @@
       <c r="F670" s="5"/>
       <c r="G670" s="5"/>
     </row>
-    <row r="671" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="5"/>
       <c r="B671" s="5"/>
       <c r="C671" s="5"/>
@@ -7725,7 +7723,7 @@
       <c r="F671" s="5"/>
       <c r="G671" s="5"/>
     </row>
-    <row r="672" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="5"/>
       <c r="B672" s="5"/>
       <c r="C672" s="5"/>
@@ -7734,7 +7732,7 @@
       <c r="F672" s="5"/>
       <c r="G672" s="5"/>
     </row>
-    <row r="673" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="5"/>
       <c r="B673" s="5"/>
       <c r="C673" s="5"/>
@@ -7743,7 +7741,7 @@
       <c r="F673" s="5"/>
       <c r="G673" s="5"/>
     </row>
-    <row r="674" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="5"/>
       <c r="B674" s="5"/>
       <c r="C674" s="5"/>
@@ -7752,7 +7750,7 @@
       <c r="F674" s="5"/>
       <c r="G674" s="5"/>
     </row>
-    <row r="675" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="5"/>
       <c r="B675" s="5"/>
       <c r="C675" s="5"/>
@@ -7761,7 +7759,7 @@
       <c r="F675" s="5"/>
       <c r="G675" s="5"/>
     </row>
-    <row r="676" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="5"/>
       <c r="B676" s="5"/>
       <c r="C676" s="5"/>
@@ -7770,7 +7768,7 @@
       <c r="F676" s="5"/>
       <c r="G676" s="5"/>
     </row>
-    <row r="677" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="5"/>
       <c r="B677" s="5"/>
       <c r="C677" s="5"/>
@@ -7779,7 +7777,7 @@
       <c r="F677" s="5"/>
       <c r="G677" s="5"/>
     </row>
-    <row r="678" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="5"/>
       <c r="B678" s="5"/>
       <c r="C678" s="5"/>
@@ -7788,7 +7786,7 @@
       <c r="F678" s="5"/>
       <c r="G678" s="5"/>
     </row>
-    <row r="679" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="5"/>
       <c r="B679" s="5"/>
       <c r="C679" s="5"/>
@@ -7797,7 +7795,7 @@
       <c r="F679" s="5"/>
       <c r="G679" s="5"/>
     </row>
-    <row r="680" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="5"/>
       <c r="B680" s="5"/>
       <c r="C680" s="5"/>
@@ -7806,7 +7804,7 @@
       <c r="F680" s="5"/>
       <c r="G680" s="5"/>
     </row>
-    <row r="681" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="5"/>
       <c r="B681" s="5"/>
       <c r="C681" s="5"/>
@@ -7815,7 +7813,7 @@
       <c r="F681" s="5"/>
       <c r="G681" s="5"/>
     </row>
-    <row r="682" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="5"/>
       <c r="B682" s="5"/>
       <c r="C682" s="5"/>
@@ -7824,7 +7822,7 @@
       <c r="F682" s="5"/>
       <c r="G682" s="5"/>
     </row>
-    <row r="683" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="5"/>
       <c r="B683" s="5"/>
       <c r="C683" s="5"/>
@@ -7833,7 +7831,7 @@
       <c r="F683" s="5"/>
       <c r="G683" s="5"/>
     </row>
-    <row r="684" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="5"/>
       <c r="B684" s="5"/>
       <c r="C684" s="5"/>
@@ -7842,7 +7840,7 @@
       <c r="F684" s="5"/>
       <c r="G684" s="5"/>
     </row>
-    <row r="685" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="5"/>
       <c r="B685" s="5"/>
       <c r="C685" s="5"/>
@@ -7851,7 +7849,7 @@
       <c r="F685" s="5"/>
       <c r="G685" s="5"/>
     </row>
-    <row r="686" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="5"/>
       <c r="B686" s="5"/>
       <c r="C686" s="5"/>
@@ -7860,7 +7858,7 @@
       <c r="F686" s="5"/>
       <c r="G686" s="5"/>
     </row>
-    <row r="687" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="5"/>
       <c r="B687" s="5"/>
       <c r="C687" s="5"/>
@@ -7869,7 +7867,7 @@
       <c r="F687" s="5"/>
       <c r="G687" s="5"/>
     </row>
-    <row r="688" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="5"/>
       <c r="B688" s="5"/>
       <c r="C688" s="5"/>
@@ -7878,7 +7876,7 @@
       <c r="F688" s="5"/>
       <c r="G688" s="5"/>
     </row>
-    <row r="689" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="5"/>
       <c r="B689" s="5"/>
       <c r="C689" s="5"/>
@@ -7887,7 +7885,7 @@
       <c r="F689" s="5"/>
       <c r="G689" s="5"/>
     </row>
-    <row r="690" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="5"/>
       <c r="B690" s="5"/>
       <c r="C690" s="5"/>
@@ -7896,7 +7894,7 @@
       <c r="F690" s="5"/>
       <c r="G690" s="5"/>
     </row>
-    <row r="691" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="5"/>
       <c r="B691" s="5"/>
       <c r="C691" s="5"/>
@@ -7905,7 +7903,7 @@
       <c r="F691" s="5"/>
       <c r="G691" s="5"/>
     </row>
-    <row r="692" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="5"/>
       <c r="B692" s="5"/>
       <c r="C692" s="5"/>
@@ -7914,7 +7912,7 @@
       <c r="F692" s="5"/>
       <c r="G692" s="5"/>
     </row>
-    <row r="693" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="5"/>
       <c r="B693" s="5"/>
       <c r="C693" s="5"/>
@@ -7923,7 +7921,7 @@
       <c r="F693" s="5"/>
       <c r="G693" s="5"/>
     </row>
-    <row r="694" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="5"/>
       <c r="B694" s="5"/>
       <c r="C694" s="5"/>
@@ -7932,7 +7930,7 @@
       <c r="F694" s="5"/>
       <c r="G694" s="5"/>
     </row>
-    <row r="695" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="5"/>
       <c r="B695" s="5"/>
       <c r="C695" s="5"/>
@@ -7941,7 +7939,7 @@
       <c r="F695" s="5"/>
       <c r="G695" s="5"/>
     </row>
-    <row r="696" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="5"/>
       <c r="B696" s="5"/>
       <c r="C696" s="5"/>
@@ -7950,7 +7948,7 @@
       <c r="F696" s="5"/>
       <c r="G696" s="5"/>
     </row>
-    <row r="697" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="5"/>
       <c r="B697" s="5"/>
       <c r="C697" s="5"/>
@@ -7959,7 +7957,7 @@
       <c r="F697" s="5"/>
       <c r="G697" s="5"/>
     </row>
-    <row r="698" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="5"/>
       <c r="B698" s="5"/>
       <c r="C698" s="5"/>
@@ -7968,7 +7966,7 @@
       <c r="F698" s="5"/>
       <c r="G698" s="5"/>
     </row>
-    <row r="699" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="5"/>
       <c r="B699" s="5"/>
       <c r="C699" s="5"/>
@@ -7977,7 +7975,7 @@
       <c r="F699" s="5"/>
       <c r="G699" s="5"/>
     </row>
-    <row r="700" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="5"/>
       <c r="B700" s="5"/>
       <c r="C700" s="5"/>
@@ -7986,7 +7984,7 @@
       <c r="F700" s="5"/>
       <c r="G700" s="5"/>
     </row>
-    <row r="701" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="5"/>
       <c r="B701" s="5"/>
       <c r="C701" s="5"/>
@@ -7995,7 +7993,7 @@
       <c r="F701" s="5"/>
       <c r="G701" s="5"/>
     </row>
-    <row r="702" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="5"/>
       <c r="B702" s="5"/>
       <c r="C702" s="5"/>
@@ -8004,7 +8002,7 @@
       <c r="F702" s="5"/>
       <c r="G702" s="5"/>
     </row>
-    <row r="703" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="5"/>
       <c r="B703" s="5"/>
       <c r="C703" s="5"/>
@@ -8013,7 +8011,7 @@
       <c r="F703" s="5"/>
       <c r="G703" s="5"/>
     </row>
-    <row r="704" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="5"/>
       <c r="B704" s="5"/>
       <c r="C704" s="5"/>
@@ -8022,7 +8020,7 @@
       <c r="F704" s="5"/>
       <c r="G704" s="5"/>
     </row>
-    <row r="705" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="5"/>
       <c r="B705" s="5"/>
       <c r="C705" s="5"/>
@@ -8031,7 +8029,7 @@
       <c r="F705" s="5"/>
       <c r="G705" s="5"/>
     </row>
-    <row r="706" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="5"/>
       <c r="B706" s="5"/>
       <c r="C706" s="5"/>
@@ -8040,7 +8038,7 @@
       <c r="F706" s="5"/>
       <c r="G706" s="5"/>
     </row>
-    <row r="707" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="5"/>
       <c r="B707" s="5"/>
       <c r="C707" s="5"/>
@@ -8049,7 +8047,7 @@
       <c r="F707" s="5"/>
       <c r="G707" s="5"/>
     </row>
-    <row r="708" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="5"/>
       <c r="B708" s="5"/>
       <c r="C708" s="5"/>
@@ -8058,7 +8056,7 @@
       <c r="F708" s="5"/>
       <c r="G708" s="5"/>
     </row>
-    <row r="709" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="5"/>
       <c r="B709" s="5"/>
       <c r="C709" s="5"/>
@@ -8067,7 +8065,7 @@
       <c r="F709" s="5"/>
       <c r="G709" s="5"/>
     </row>
-    <row r="710" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="5"/>
       <c r="B710" s="5"/>
       <c r="C710" s="5"/>
@@ -8076,7 +8074,7 @@
       <c r="F710" s="5"/>
       <c r="G710" s="5"/>
     </row>
-    <row r="711" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="5"/>
       <c r="B711" s="5"/>
       <c r="C711" s="5"/>
@@ -8085,7 +8083,7 @@
       <c r="F711" s="5"/>
       <c r="G711" s="5"/>
     </row>
-    <row r="712" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="5"/>
       <c r="B712" s="5"/>
       <c r="C712" s="5"/>
@@ -8094,7 +8092,7 @@
       <c r="F712" s="5"/>
       <c r="G712" s="5"/>
     </row>
-    <row r="713" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="5"/>
       <c r="B713" s="5"/>
       <c r="C713" s="5"/>
@@ -8103,7 +8101,7 @@
       <c r="F713" s="5"/>
       <c r="G713" s="5"/>
     </row>
-    <row r="714" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="5"/>
       <c r="B714" s="5"/>
       <c r="C714" s="5"/>
@@ -8112,7 +8110,7 @@
       <c r="F714" s="5"/>
       <c r="G714" s="5"/>
     </row>
-    <row r="715" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="5"/>
       <c r="B715" s="5"/>
       <c r="C715" s="5"/>
@@ -8121,7 +8119,7 @@
       <c r="F715" s="5"/>
       <c r="G715" s="5"/>
     </row>
-    <row r="716" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="5"/>
       <c r="B716" s="5"/>
       <c r="C716" s="5"/>
@@ -8130,7 +8128,7 @@
       <c r="F716" s="5"/>
       <c r="G716" s="5"/>
     </row>
-    <row r="717" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="5"/>
       <c r="B717" s="5"/>
       <c r="C717" s="5"/>
@@ -8139,7 +8137,7 @@
       <c r="F717" s="5"/>
       <c r="G717" s="5"/>
     </row>
-    <row r="718" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="5"/>
       <c r="B718" s="5"/>
       <c r="C718" s="5"/>
@@ -8148,7 +8146,7 @@
       <c r="F718" s="5"/>
       <c r="G718" s="5"/>
     </row>
-    <row r="719" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="5"/>
       <c r="B719" s="5"/>
       <c r="C719" s="5"/>
@@ -8157,7 +8155,7 @@
       <c r="F719" s="5"/>
       <c r="G719" s="5"/>
     </row>
-    <row r="720" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="5"/>
       <c r="B720" s="5"/>
       <c r="C720" s="5"/>
@@ -8166,7 +8164,7 @@
       <c r="F720" s="5"/>
       <c r="G720" s="5"/>
     </row>
-    <row r="721" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="5"/>
       <c r="B721" s="5"/>
       <c r="C721" s="5"/>
@@ -8175,7 +8173,7 @@
       <c r="F721" s="5"/>
       <c r="G721" s="5"/>
     </row>
-    <row r="722" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="5"/>
       <c r="B722" s="5"/>
       <c r="C722" s="5"/>
@@ -8184,7 +8182,7 @@
       <c r="F722" s="5"/>
       <c r="G722" s="5"/>
     </row>
-    <row r="723" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="5"/>
       <c r="B723" s="5"/>
       <c r="C723" s="5"/>
@@ -8193,7 +8191,7 @@
       <c r="F723" s="5"/>
       <c r="G723" s="5"/>
     </row>
-    <row r="724" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="5"/>
       <c r="B724" s="5"/>
       <c r="C724" s="5"/>
@@ -8202,7 +8200,7 @@
       <c r="F724" s="5"/>
       <c r="G724" s="5"/>
     </row>
-    <row r="725" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="5"/>
       <c r="B725" s="5"/>
       <c r="C725" s="5"/>
@@ -8211,7 +8209,7 @@
       <c r="F725" s="5"/>
       <c r="G725" s="5"/>
     </row>
-    <row r="726" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="5"/>
       <c r="B726" s="5"/>
       <c r="C726" s="5"/>
@@ -8220,7 +8218,7 @@
       <c r="F726" s="5"/>
       <c r="G726" s="5"/>
     </row>
-    <row r="727" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="5"/>
       <c r="B727" s="5"/>
       <c r="C727" s="5"/>
@@ -8229,7 +8227,7 @@
       <c r="F727" s="5"/>
       <c r="G727" s="5"/>
     </row>
-    <row r="728" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="5"/>
       <c r="B728" s="5"/>
       <c r="C728" s="5"/>
@@ -8238,7 +8236,7 @@
       <c r="F728" s="5"/>
       <c r="G728" s="5"/>
     </row>
-    <row r="729" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="5"/>
       <c r="B729" s="5"/>
       <c r="C729" s="5"/>
@@ -8247,7 +8245,7 @@
       <c r="F729" s="5"/>
       <c r="G729" s="5"/>
     </row>
-    <row r="730" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="5"/>
       <c r="B730" s="5"/>
       <c r="C730" s="5"/>
@@ -8256,7 +8254,7 @@
       <c r="F730" s="5"/>
       <c r="G730" s="5"/>
     </row>
-    <row r="731" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="5"/>
       <c r="B731" s="5"/>
       <c r="C731" s="5"/>
@@ -8265,7 +8263,7 @@
       <c r="F731" s="5"/>
       <c r="G731" s="5"/>
     </row>
-    <row r="732" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="5"/>
       <c r="B732" s="5"/>
       <c r="C732" s="5"/>
@@ -8274,7 +8272,7 @@
       <c r="F732" s="5"/>
       <c r="G732" s="5"/>
     </row>
-    <row r="733" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="5"/>
       <c r="B733" s="5"/>
       <c r="C733" s="5"/>
@@ -8283,7 +8281,7 @@
       <c r="F733" s="5"/>
       <c r="G733" s="5"/>
     </row>
-    <row r="734" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="5"/>
       <c r="B734" s="5"/>
       <c r="C734" s="5"/>
@@ -8292,7 +8290,7 @@
       <c r="F734" s="5"/>
       <c r="G734" s="5"/>
     </row>
-    <row r="735" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="5"/>
       <c r="B735" s="5"/>
       <c r="C735" s="5"/>
@@ -8301,7 +8299,7 @@
       <c r="F735" s="5"/>
       <c r="G735" s="5"/>
     </row>
-    <row r="736" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="5"/>
       <c r="B736" s="5"/>
       <c r="C736" s="5"/>
@@ -8310,7 +8308,7 @@
       <c r="F736" s="5"/>
       <c r="G736" s="5"/>
     </row>
-    <row r="737" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="5"/>
       <c r="B737" s="5"/>
       <c r="C737" s="5"/>
@@ -8319,7 +8317,7 @@
       <c r="F737" s="5"/>
       <c r="G737" s="5"/>
     </row>
-    <row r="738" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="5"/>
       <c r="B738" s="5"/>
       <c r="C738" s="5"/>
@@ -8328,7 +8326,7 @@
       <c r="F738" s="5"/>
       <c r="G738" s="5"/>
     </row>
-    <row r="739" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="5"/>
       <c r="B739" s="5"/>
       <c r="C739" s="5"/>
@@ -8337,7 +8335,7 @@
       <c r="F739" s="5"/>
       <c r="G739" s="5"/>
     </row>
-    <row r="740" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="5"/>
       <c r="B740" s="5"/>
       <c r="C740" s="5"/>
@@ -8346,7 +8344,7 @@
       <c r="F740" s="5"/>
       <c r="G740" s="5"/>
     </row>
-    <row r="741" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A741" s="5"/>
       <c r="B741" s="5"/>
       <c r="C741" s="5"/>
@@ -8355,7 +8353,7 @@
       <c r="F741" s="5"/>
       <c r="G741" s="5"/>
     </row>
-    <row r="742" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A742" s="5"/>
       <c r="B742" s="5"/>
       <c r="C742" s="5"/>
@@ -8364,7 +8362,7 @@
       <c r="F742" s="5"/>
       <c r="G742" s="5"/>
     </row>
-    <row r="743" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A743" s="5"/>
       <c r="B743" s="5"/>
       <c r="C743" s="5"/>
@@ -8373,7 +8371,7 @@
       <c r="F743" s="5"/>
       <c r="G743" s="5"/>
     </row>
-    <row r="744" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A744" s="5"/>
       <c r="B744" s="5"/>
       <c r="C744" s="5"/>
@@ -8382,7 +8380,7 @@
       <c r="F744" s="5"/>
       <c r="G744" s="5"/>
     </row>
-    <row r="745" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="5"/>
       <c r="B745" s="5"/>
       <c r="C745" s="5"/>
@@ -8391,7 +8389,7 @@
       <c r="F745" s="5"/>
       <c r="G745" s="5"/>
     </row>
-    <row r="746" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A746" s="5"/>
       <c r="B746" s="5"/>
       <c r="C746" s="5"/>
@@ -8400,7 +8398,7 @@
       <c r="F746" s="5"/>
       <c r="G746" s="5"/>
     </row>
-    <row r="747" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A747" s="5"/>
       <c r="B747" s="5"/>
       <c r="C747" s="5"/>
@@ -8409,7 +8407,7 @@
       <c r="F747" s="5"/>
       <c r="G747" s="5"/>
     </row>
-    <row r="748" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A748" s="5"/>
       <c r="B748" s="5"/>
       <c r="C748" s="5"/>
@@ -8418,7 +8416,7 @@
       <c r="F748" s="5"/>
       <c r="G748" s="5"/>
     </row>
-    <row r="749" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="5"/>
       <c r="B749" s="5"/>
       <c r="C749" s="5"/>
@@ -8427,7 +8425,7 @@
       <c r="F749" s="5"/>
       <c r="G749" s="5"/>
     </row>
-    <row r="750" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A750" s="5"/>
       <c r="B750" s="5"/>
       <c r="C750" s="5"/>
@@ -8436,7 +8434,7 @@
       <c r="F750" s="5"/>
       <c r="G750" s="5"/>
     </row>
-    <row r="751" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A751" s="5"/>
       <c r="B751" s="5"/>
       <c r="C751" s="5"/>
@@ -8445,7 +8443,7 @@
       <c r="F751" s="5"/>
       <c r="G751" s="5"/>
     </row>
-    <row r="752" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A752" s="5"/>
       <c r="B752" s="5"/>
       <c r="C752" s="5"/>
@@ -8454,7 +8452,7 @@
       <c r="F752" s="5"/>
       <c r="G752" s="5"/>
     </row>
-    <row r="753" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="5"/>
       <c r="B753" s="5"/>
       <c r="C753" s="5"/>
@@ -8463,7 +8461,7 @@
       <c r="F753" s="5"/>
       <c r="G753" s="5"/>
     </row>
-    <row r="754" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A754" s="5"/>
       <c r="B754" s="5"/>
       <c r="C754" s="5"/>
@@ -8472,7 +8470,7 @@
       <c r="F754" s="5"/>
       <c r="G754" s="5"/>
     </row>
-    <row r="755" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A755" s="5"/>
       <c r="B755" s="5"/>
       <c r="C755" s="5"/>
@@ -8481,7 +8479,7 @@
       <c r="F755" s="5"/>
       <c r="G755" s="5"/>
     </row>
-    <row r="756" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A756" s="5"/>
       <c r="B756" s="5"/>
       <c r="C756" s="5"/>
@@ -8490,7 +8488,7 @@
       <c r="F756" s="5"/>
       <c r="G756" s="5"/>
     </row>
-    <row r="757" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A757" s="5"/>
       <c r="B757" s="5"/>
       <c r="C757" s="5"/>
@@ -8499,7 +8497,7 @@
       <c r="F757" s="5"/>
       <c r="G757" s="5"/>
     </row>
-    <row r="758" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A758" s="5"/>
       <c r="B758" s="5"/>
       <c r="C758" s="5"/>
@@ -8508,7 +8506,7 @@
       <c r="F758" s="5"/>
       <c r="G758" s="5"/>
     </row>
-    <row r="759" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="5"/>
       <c r="B759" s="5"/>
       <c r="C759" s="5"/>
@@ -8517,7 +8515,7 @@
       <c r="F759" s="5"/>
       <c r="G759" s="5"/>
     </row>
-    <row r="760" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A760" s="5"/>
       <c r="B760" s="5"/>
       <c r="C760" s="5"/>
@@ -8526,7 +8524,7 @@
       <c r="F760" s="5"/>
       <c r="G760" s="5"/>
     </row>
-    <row r="761" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A761" s="5"/>
       <c r="B761" s="5"/>
       <c r="C761" s="5"/>
@@ -8535,7 +8533,7 @@
       <c r="F761" s="5"/>
       <c r="G761" s="5"/>
     </row>
-    <row r="762" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A762" s="5"/>
       <c r="B762" s="5"/>
       <c r="C762" s="5"/>
@@ -8544,7 +8542,7 @@
       <c r="F762" s="5"/>
       <c r="G762" s="5"/>
     </row>
-    <row r="763" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="5"/>
       <c r="B763" s="5"/>
       <c r="C763" s="5"/>
@@ -8553,7 +8551,7 @@
       <c r="F763" s="5"/>
       <c r="G763" s="5"/>
     </row>
-    <row r="764" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="5"/>
       <c r="B764" s="5"/>
       <c r="C764" s="5"/>
@@ -8562,7 +8560,7 @@
       <c r="F764" s="5"/>
       <c r="G764" s="5"/>
     </row>
-    <row r="765" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="5"/>
       <c r="B765" s="5"/>
       <c r="C765" s="5"/>
@@ -8571,7 +8569,7 @@
       <c r="F765" s="5"/>
       <c r="G765" s="5"/>
     </row>
-    <row r="766" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A766" s="5"/>
       <c r="B766" s="5"/>
       <c r="C766" s="5"/>
@@ -8580,7 +8578,7 @@
       <c r="F766" s="5"/>
       <c r="G766" s="5"/>
     </row>
-    <row r="767" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A767" s="5"/>
       <c r="B767" s="5"/>
       <c r="C767" s="5"/>
@@ -8589,7 +8587,7 @@
       <c r="F767" s="5"/>
       <c r="G767" s="5"/>
     </row>
-    <row r="768" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A768" s="5"/>
       <c r="B768" s="5"/>
       <c r="C768" s="5"/>
@@ -8598,7 +8596,7 @@
       <c r="F768" s="5"/>
       <c r="G768" s="5"/>
     </row>
-    <row r="769" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A769" s="5"/>
       <c r="B769" s="5"/>
       <c r="C769" s="5"/>
@@ -8607,7 +8605,7 @@
       <c r="F769" s="5"/>
       <c r="G769" s="5"/>
     </row>
-    <row r="770" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A770" s="5"/>
       <c r="B770" s="5"/>
       <c r="C770" s="5"/>
@@ -8616,7 +8614,7 @@
       <c r="F770" s="5"/>
       <c r="G770" s="5"/>
     </row>
-    <row r="771" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A771" s="5"/>
       <c r="B771" s="5"/>
       <c r="C771" s="5"/>
@@ -8625,7 +8623,7 @@
       <c r="F771" s="5"/>
       <c r="G771" s="5"/>
     </row>
-    <row r="772" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A772" s="5"/>
       <c r="B772" s="5"/>
       <c r="C772" s="5"/>
@@ -8634,7 +8632,7 @@
       <c r="F772" s="5"/>
       <c r="G772" s="5"/>
     </row>
-    <row r="773" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A773" s="5"/>
       <c r="B773" s="5"/>
       <c r="C773" s="5"/>
@@ -8643,7 +8641,7 @@
       <c r="F773" s="5"/>
       <c r="G773" s="5"/>
     </row>
-    <row r="774" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A774" s="5"/>
       <c r="B774" s="5"/>
       <c r="C774" s="5"/>
@@ -8652,7 +8650,7 @@
       <c r="F774" s="5"/>
       <c r="G774" s="5"/>
     </row>
-    <row r="775" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A775" s="5"/>
       <c r="B775" s="5"/>
       <c r="C775" s="5"/>
@@ -8661,7 +8659,7 @@
       <c r="F775" s="5"/>
       <c r="G775" s="5"/>
     </row>
-    <row r="776" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A776" s="5"/>
       <c r="B776" s="5"/>
       <c r="C776" s="5"/>
@@ -8670,7 +8668,7 @@
       <c r="F776" s="5"/>
       <c r="G776" s="5"/>
     </row>
-    <row r="777" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A777" s="5"/>
       <c r="B777" s="5"/>
       <c r="C777" s="5"/>
@@ -8679,7 +8677,7 @@
       <c r="F777" s="5"/>
       <c r="G777" s="5"/>
     </row>
-    <row r="778" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A778" s="5"/>
       <c r="B778" s="5"/>
       <c r="C778" s="5"/>
@@ -8688,7 +8686,7 @@
       <c r="F778" s="5"/>
       <c r="G778" s="5"/>
     </row>
-    <row r="779" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A779" s="5"/>
       <c r="B779" s="5"/>
       <c r="C779" s="5"/>
@@ -8697,7 +8695,7 @@
       <c r="F779" s="5"/>
       <c r="G779" s="5"/>
     </row>
-    <row r="780" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A780" s="5"/>
       <c r="B780" s="5"/>
       <c r="C780" s="5"/>
@@ -8706,7 +8704,7 @@
       <c r="F780" s="5"/>
       <c r="G780" s="5"/>
     </row>
-    <row r="781" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A781" s="5"/>
       <c r="B781" s="5"/>
       <c r="C781" s="5"/>
@@ -8715,7 +8713,7 @@
       <c r="F781" s="5"/>
       <c r="G781" s="5"/>
     </row>
-    <row r="782" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A782" s="5"/>
       <c r="B782" s="5"/>
       <c r="C782" s="5"/>
@@ -8724,7 +8722,7 @@
       <c r="F782" s="5"/>
       <c r="G782" s="5"/>
     </row>
-    <row r="783" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A783" s="5"/>
       <c r="B783" s="5"/>
       <c r="C783" s="5"/>
@@ -8733,7 +8731,7 @@
       <c r="F783" s="5"/>
       <c r="G783" s="5"/>
     </row>
-    <row r="784" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A784" s="5"/>
       <c r="B784" s="5"/>
       <c r="C784" s="5"/>
@@ -8742,7 +8740,7 @@
       <c r="F784" s="5"/>
       <c r="G784" s="5"/>
     </row>
-    <row r="785" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="5"/>
       <c r="B785" s="5"/>
       <c r="C785" s="5"/>
@@ -8751,7 +8749,7 @@
       <c r="F785" s="5"/>
       <c r="G785" s="5"/>
     </row>
-    <row r="786" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A786" s="5"/>
       <c r="B786" s="5"/>
       <c r="C786" s="5"/>
@@ -8760,7 +8758,7 @@
       <c r="F786" s="5"/>
       <c r="G786" s="5"/>
     </row>
-    <row r="787" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A787" s="5"/>
       <c r="B787" s="5"/>
       <c r="C787" s="5"/>
@@ -8769,7 +8767,7 @@
       <c r="F787" s="5"/>
       <c r="G787" s="5"/>
     </row>
-    <row r="788" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A788" s="5"/>
       <c r="B788" s="5"/>
       <c r="C788" s="5"/>
@@ -8778,7 +8776,7 @@
       <c r="F788" s="5"/>
       <c r="G788" s="5"/>
     </row>
-    <row r="789" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A789" s="5"/>
       <c r="B789" s="5"/>
       <c r="C789" s="5"/>
@@ -8787,7 +8785,7 @@
       <c r="F789" s="5"/>
       <c r="G789" s="5"/>
     </row>
-    <row r="790" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A790" s="5"/>
       <c r="B790" s="5"/>
       <c r="C790" s="5"/>
@@ -8796,7 +8794,7 @@
       <c r="F790" s="5"/>
       <c r="G790" s="5"/>
     </row>
-    <row r="791" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A791" s="5"/>
       <c r="B791" s="5"/>
       <c r="C791" s="5"/>
@@ -8805,7 +8803,7 @@
       <c r="F791" s="5"/>
       <c r="G791" s="5"/>
     </row>
-    <row r="792" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A792" s="5"/>
       <c r="B792" s="5"/>
       <c r="C792" s="5"/>
@@ -8814,7 +8812,7 @@
       <c r="F792" s="5"/>
       <c r="G792" s="5"/>
     </row>
-    <row r="793" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A793" s="5"/>
       <c r="B793" s="5"/>
       <c r="C793" s="5"/>
@@ -8823,7 +8821,7 @@
       <c r="F793" s="5"/>
       <c r="G793" s="5"/>
     </row>
-    <row r="794" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A794" s="5"/>
       <c r="B794" s="5"/>
       <c r="C794" s="5"/>
@@ -8832,7 +8830,7 @@
       <c r="F794" s="5"/>
       <c r="G794" s="5"/>
     </row>
-    <row r="795" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A795" s="5"/>
       <c r="B795" s="5"/>
       <c r="C795" s="5"/>
@@ -8841,7 +8839,7 @@
       <c r="F795" s="5"/>
       <c r="G795" s="5"/>
     </row>
-    <row r="796" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A796" s="5"/>
       <c r="B796" s="5"/>
       <c r="C796" s="5"/>
@@ -8850,7 +8848,7 @@
       <c r="F796" s="5"/>
       <c r="G796" s="5"/>
     </row>
-    <row r="797" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A797" s="5"/>
       <c r="B797" s="5"/>
       <c r="C797" s="5"/>
@@ -8859,7 +8857,7 @@
       <c r="F797" s="5"/>
       <c r="G797" s="5"/>
     </row>
-    <row r="798" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A798" s="5"/>
       <c r="B798" s="5"/>
       <c r="C798" s="5"/>
@@ -8868,7 +8866,7 @@
       <c r="F798" s="5"/>
       <c r="G798" s="5"/>
     </row>
-    <row r="799" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A799" s="5"/>
       <c r="B799" s="5"/>
       <c r="C799" s="5"/>
@@ -8877,7 +8875,7 @@
       <c r="F799" s="5"/>
       <c r="G799" s="5"/>
     </row>
-    <row r="800" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A800" s="5"/>
       <c r="B800" s="5"/>
       <c r="C800" s="5"/>
@@ -8886,7 +8884,7 @@
       <c r="F800" s="5"/>
       <c r="G800" s="5"/>
     </row>
-    <row r="801" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A801" s="5"/>
       <c r="B801" s="5"/>
       <c r="C801" s="5"/>
@@ -8895,7 +8893,7 @@
       <c r="F801" s="5"/>
       <c r="G801" s="5"/>
     </row>
-    <row r="802" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A802" s="5"/>
       <c r="B802" s="5"/>
       <c r="C802" s="5"/>
@@ -8904,7 +8902,7 @@
       <c r="F802" s="5"/>
       <c r="G802" s="5"/>
     </row>
-    <row r="803" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A803" s="5"/>
       <c r="B803" s="5"/>
       <c r="C803" s="5"/>
@@ -8913,7 +8911,7 @@
       <c r="F803" s="5"/>
       <c r="G803" s="5"/>
     </row>
-    <row r="804" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A804" s="5"/>
       <c r="B804" s="5"/>
       <c r="C804" s="5"/>
@@ -8922,7 +8920,7 @@
       <c r="F804" s="5"/>
       <c r="G804" s="5"/>
     </row>
-    <row r="805" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A805" s="5"/>
       <c r="B805" s="5"/>
       <c r="C805" s="5"/>
@@ -8931,7 +8929,7 @@
       <c r="F805" s="5"/>
       <c r="G805" s="5"/>
     </row>
-    <row r="806" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A806" s="5"/>
       <c r="B806" s="5"/>
       <c r="C806" s="5"/>
@@ -8940,7 +8938,7 @@
       <c r="F806" s="5"/>
       <c r="G806" s="5"/>
     </row>
-    <row r="807" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A807" s="5"/>
       <c r="B807" s="5"/>
       <c r="C807" s="5"/>
@@ -8949,7 +8947,7 @@
       <c r="F807" s="5"/>
       <c r="G807" s="5"/>
     </row>
-    <row r="808" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A808" s="5"/>
       <c r="B808" s="5"/>
       <c r="C808" s="5"/>
@@ -8958,7 +8956,7 @@
       <c r="F808" s="5"/>
       <c r="G808" s="5"/>
     </row>
-    <row r="809" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A809" s="5"/>
       <c r="B809" s="5"/>
       <c r="C809" s="5"/>
@@ -8967,7 +8965,7 @@
       <c r="F809" s="5"/>
       <c r="G809" s="5"/>
     </row>
-    <row r="810" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A810" s="5"/>
       <c r="B810" s="5"/>
       <c r="C810" s="5"/>
@@ -8976,7 +8974,7 @@
       <c r="F810" s="5"/>
       <c r="G810" s="5"/>
     </row>
-    <row r="811" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A811" s="5"/>
       <c r="B811" s="5"/>
       <c r="C811" s="5"/>
@@ -8985,7 +8983,7 @@
       <c r="F811" s="5"/>
       <c r="G811" s="5"/>
     </row>
-    <row r="812" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A812" s="5"/>
       <c r="B812" s="5"/>
       <c r="C812" s="5"/>
@@ -8994,7 +8992,7 @@
       <c r="F812" s="5"/>
       <c r="G812" s="5"/>
     </row>
-    <row r="813" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A813" s="5"/>
       <c r="B813" s="5"/>
       <c r="C813" s="5"/>
@@ -9003,7 +9001,7 @@
       <c r="F813" s="5"/>
       <c r="G813" s="5"/>
     </row>
-    <row r="814" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A814" s="5"/>
       <c r="B814" s="5"/>
       <c r="C814" s="5"/>
@@ -9012,7 +9010,7 @@
       <c r="F814" s="5"/>
       <c r="G814" s="5"/>
     </row>
-    <row r="815" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A815" s="5"/>
       <c r="B815" s="5"/>
       <c r="C815" s="5"/>
@@ -9021,7 +9019,7 @@
       <c r="F815" s="5"/>
       <c r="G815" s="5"/>
     </row>
-    <row r="816" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A816" s="5"/>
       <c r="B816" s="5"/>
       <c r="C816" s="5"/>
@@ -9030,7 +9028,7 @@
       <c r="F816" s="5"/>
       <c r="G816" s="5"/>
     </row>
-    <row r="817" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A817" s="5"/>
       <c r="B817" s="5"/>
       <c r="C817" s="5"/>
@@ -9039,7 +9037,7 @@
       <c r="F817" s="5"/>
       <c r="G817" s="5"/>
     </row>
-    <row r="818" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A818" s="5"/>
       <c r="B818" s="5"/>
       <c r="C818" s="5"/>
@@ -9048,7 +9046,7 @@
       <c r="F818" s="5"/>
       <c r="G818" s="5"/>
     </row>
-    <row r="819" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A819" s="5"/>
       <c r="B819" s="5"/>
       <c r="C819" s="5"/>
@@ -9057,7 +9055,7 @@
       <c r="F819" s="5"/>
       <c r="G819" s="5"/>
     </row>
-    <row r="820" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A820" s="5"/>
       <c r="B820" s="5"/>
       <c r="C820" s="5"/>
@@ -9066,7 +9064,7 @@
       <c r="F820" s="5"/>
       <c r="G820" s="5"/>
     </row>
-    <row r="821" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A821" s="5"/>
       <c r="B821" s="5"/>
       <c r="C821" s="5"/>
@@ -9075,7 +9073,7 @@
       <c r="F821" s="5"/>
       <c r="G821" s="5"/>
     </row>
-    <row r="822" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A822" s="5"/>
       <c r="B822" s="5"/>
       <c r="C822" s="5"/>
@@ -9084,7 +9082,7 @@
       <c r="F822" s="5"/>
       <c r="G822" s="5"/>
     </row>
-    <row r="823" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A823" s="5"/>
       <c r="B823" s="5"/>
       <c r="C823" s="5"/>
@@ -9093,7 +9091,7 @@
       <c r="F823" s="5"/>
       <c r="G823" s="5"/>
     </row>
-    <row r="824" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A824" s="5"/>
       <c r="B824" s="5"/>
       <c r="C824" s="5"/>
@@ -9102,7 +9100,7 @@
       <c r="F824" s="5"/>
       <c r="G824" s="5"/>
     </row>
-    <row r="825" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A825" s="5"/>
       <c r="B825" s="5"/>
       <c r="C825" s="5"/>
@@ -9111,7 +9109,7 @@
       <c r="F825" s="5"/>
       <c r="G825" s="5"/>
     </row>
-    <row r="826" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A826" s="5"/>
       <c r="B826" s="5"/>
       <c r="C826" s="5"/>
@@ -9120,7 +9118,7 @@
       <c r="F826" s="5"/>
       <c r="G826" s="5"/>
     </row>
-    <row r="827" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A827" s="5"/>
       <c r="B827" s="5"/>
       <c r="C827" s="5"/>
@@ -9129,7 +9127,7 @@
       <c r="F827" s="5"/>
       <c r="G827" s="5"/>
     </row>
-    <row r="828" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A828" s="5"/>
       <c r="B828" s="5"/>
       <c r="C828" s="5"/>
@@ -9138,7 +9136,7 @@
       <c r="F828" s="5"/>
       <c r="G828" s="5"/>
     </row>
-    <row r="829" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A829" s="5"/>
       <c r="B829" s="5"/>
       <c r="C829" s="5"/>
@@ -9147,7 +9145,7 @@
       <c r="F829" s="5"/>
       <c r="G829" s="5"/>
     </row>
-    <row r="830" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A830" s="5"/>
       <c r="B830" s="5"/>
       <c r="C830" s="5"/>
@@ -9156,7 +9154,7 @@
       <c r="F830" s="5"/>
       <c r="G830" s="5"/>
     </row>
-    <row r="831" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A831" s="5"/>
       <c r="B831" s="5"/>
       <c r="C831" s="5"/>
@@ -9165,7 +9163,7 @@
       <c r="F831" s="5"/>
       <c r="G831" s="5"/>
     </row>
-    <row r="832" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A832" s="5"/>
       <c r="B832" s="5"/>
       <c r="C832" s="5"/>
@@ -9174,7 +9172,7 @@
       <c r="F832" s="5"/>
       <c r="G832" s="5"/>
     </row>
-    <row r="833" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A833" s="5"/>
       <c r="B833" s="5"/>
       <c r="C833" s="5"/>
@@ -9183,7 +9181,7 @@
       <c r="F833" s="5"/>
       <c r="G833" s="5"/>
     </row>
-    <row r="834" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A834" s="5"/>
       <c r="B834" s="5"/>
       <c r="C834" s="5"/>
@@ -9192,7 +9190,7 @@
       <c r="F834" s="5"/>
       <c r="G834" s="5"/>
     </row>
-    <row r="835" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A835" s="5"/>
       <c r="B835" s="5"/>
       <c r="C835" s="5"/>
@@ -9201,7 +9199,7 @@
       <c r="F835" s="5"/>
       <c r="G835" s="5"/>
     </row>
-    <row r="836" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A836" s="5"/>
       <c r="B836" s="5"/>
       <c r="C836" s="5"/>
@@ -9210,7 +9208,7 @@
       <c r="F836" s="5"/>
       <c r="G836" s="5"/>
     </row>
-    <row r="837" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A837" s="5"/>
       <c r="B837" s="5"/>
       <c r="C837" s="5"/>
@@ -9219,7 +9217,7 @@
       <c r="F837" s="5"/>
       <c r="G837" s="5"/>
     </row>
-    <row r="838" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A838" s="5"/>
       <c r="B838" s="5"/>
       <c r="C838" s="5"/>
@@ -9228,7 +9226,7 @@
       <c r="F838" s="5"/>
       <c r="G838" s="5"/>
     </row>
-    <row r="839" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A839" s="5"/>
       <c r="B839" s="5"/>
       <c r="C839" s="5"/>
@@ -9237,7 +9235,7 @@
       <c r="F839" s="5"/>
       <c r="G839" s="5"/>
     </row>
-    <row r="840" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A840" s="5"/>
       <c r="B840" s="5"/>
       <c r="C840" s="5"/>
@@ -9246,7 +9244,7 @@
       <c r="F840" s="5"/>
       <c r="G840" s="5"/>
     </row>
-    <row r="841" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A841" s="5"/>
       <c r="B841" s="5"/>
       <c r="C841" s="5"/>
@@ -9255,7 +9253,7 @@
       <c r="F841" s="5"/>
       <c r="G841" s="5"/>
     </row>
-    <row r="842" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A842" s="5"/>
       <c r="B842" s="5"/>
       <c r="C842" s="5"/>
@@ -9264,7 +9262,7 @@
       <c r="F842" s="5"/>
       <c r="G842" s="5"/>
     </row>
-    <row r="843" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A843" s="5"/>
       <c r="B843" s="5"/>
       <c r="C843" s="5"/>
@@ -9273,7 +9271,7 @@
       <c r="F843" s="5"/>
       <c r="G843" s="5"/>
     </row>
-    <row r="844" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A844" s="5"/>
       <c r="B844" s="5"/>
       <c r="C844" s="5"/>
@@ -9282,7 +9280,7 @@
       <c r="F844" s="5"/>
       <c r="G844" s="5"/>
     </row>
-    <row r="845" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A845" s="5"/>
       <c r="B845" s="5"/>
       <c r="C845" s="5"/>
@@ -9291,7 +9289,7 @@
       <c r="F845" s="5"/>
       <c r="G845" s="5"/>
     </row>
-    <row r="846" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A846" s="5"/>
       <c r="B846" s="5"/>
       <c r="C846" s="5"/>
@@ -9300,7 +9298,7 @@
       <c r="F846" s="5"/>
       <c r="G846" s="5"/>
     </row>
-    <row r="847" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A847" s="5"/>
       <c r="B847" s="5"/>
       <c r="C847" s="5"/>
@@ -9309,7 +9307,7 @@
       <c r="F847" s="5"/>
       <c r="G847" s="5"/>
     </row>
-    <row r="848" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A848" s="5"/>
       <c r="B848" s="5"/>
       <c r="C848" s="5"/>
@@ -9318,7 +9316,7 @@
       <c r="F848" s="5"/>
       <c r="G848" s="5"/>
     </row>
-    <row r="849" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A849" s="5"/>
       <c r="B849" s="5"/>
       <c r="C849" s="5"/>
@@ -9327,7 +9325,7 @@
       <c r="F849" s="5"/>
       <c r="G849" s="5"/>
     </row>
-    <row r="850" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A850" s="5"/>
       <c r="B850" s="5"/>
       <c r="C850" s="5"/>
@@ -9336,7 +9334,7 @@
       <c r="F850" s="5"/>
       <c r="G850" s="5"/>
     </row>
-    <row r="851" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A851" s="5"/>
       <c r="B851" s="5"/>
       <c r="C851" s="5"/>
@@ -9345,7 +9343,7 @@
       <c r="F851" s="5"/>
       <c r="G851" s="5"/>
     </row>
-    <row r="852" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A852" s="5"/>
       <c r="B852" s="5"/>
       <c r="C852" s="5"/>
@@ -9354,7 +9352,7 @@
       <c r="F852" s="5"/>
       <c r="G852" s="5"/>
     </row>
-    <row r="853" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A853" s="5"/>
       <c r="B853" s="5"/>
       <c r="C853" s="5"/>
@@ -9363,7 +9361,7 @@
       <c r="F853" s="5"/>
       <c r="G853" s="5"/>
     </row>
-    <row r="854" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A854" s="5"/>
       <c r="B854" s="5"/>
       <c r="C854" s="5"/>
@@ -9372,7 +9370,7 @@
       <c r="F854" s="5"/>
       <c r="G854" s="5"/>
     </row>
-    <row r="855" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A855" s="5"/>
       <c r="B855" s="5"/>
       <c r="C855" s="5"/>
@@ -9381,7 +9379,7 @@
       <c r="F855" s="5"/>
       <c r="G855" s="5"/>
     </row>
-    <row r="856" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A856" s="5"/>
       <c r="B856" s="5"/>
       <c r="C856" s="5"/>
@@ -9390,7 +9388,7 @@
       <c r="F856" s="5"/>
       <c r="G856" s="5"/>
     </row>
-    <row r="857" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A857" s="5"/>
       <c r="B857" s="5"/>
       <c r="C857" s="5"/>
@@ -9399,7 +9397,7 @@
       <c r="F857" s="5"/>
       <c r="G857" s="5"/>
     </row>
-    <row r="858" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A858" s="5"/>
       <c r="B858" s="5"/>
       <c r="C858" s="5"/>
@@ -9408,7 +9406,7 @@
       <c r="F858" s="5"/>
       <c r="G858" s="5"/>
     </row>
-    <row r="859" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A859" s="5"/>
       <c r="B859" s="5"/>
       <c r="C859" s="5"/>
@@ -9417,7 +9415,7 @@
       <c r="F859" s="5"/>
       <c r="G859" s="5"/>
     </row>
-    <row r="860" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A860" s="5"/>
       <c r="B860" s="5"/>
       <c r="C860" s="5"/>
@@ -9426,7 +9424,7 @@
       <c r="F860" s="5"/>
       <c r="G860" s="5"/>
     </row>
-    <row r="861" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A861" s="5"/>
       <c r="B861" s="5"/>
       <c r="C861" s="5"/>
@@ -9435,7 +9433,7 @@
       <c r="F861" s="5"/>
       <c r="G861" s="5"/>
     </row>
-    <row r="862" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A862" s="5"/>
       <c r="B862" s="5"/>
       <c r="C862" s="5"/>
@@ -9444,7 +9442,7 @@
       <c r="F862" s="5"/>
       <c r="G862" s="5"/>
     </row>
-    <row r="863" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A863" s="5"/>
       <c r="B863" s="5"/>
       <c r="C863" s="5"/>
@@ -9453,7 +9451,7 @@
       <c r="F863" s="5"/>
       <c r="G863" s="5"/>
     </row>
-    <row r="864" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A864" s="5"/>
       <c r="B864" s="5"/>
       <c r="C864" s="5"/>
@@ -9462,7 +9460,7 @@
       <c r="F864" s="5"/>
       <c r="G864" s="5"/>
     </row>
-    <row r="865" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A865" s="5"/>
       <c r="B865" s="5"/>
       <c r="C865" s="5"/>
@@ -9471,7 +9469,7 @@
       <c r="F865" s="5"/>
       <c r="G865" s="5"/>
     </row>
-    <row r="866" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A866" s="5"/>
       <c r="B866" s="5"/>
       <c r="C866" s="5"/>
@@ -9480,7 +9478,7 @@
       <c r="F866" s="5"/>
       <c r="G866" s="5"/>
     </row>
-    <row r="867" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A867" s="5"/>
       <c r="B867" s="5"/>
       <c r="C867" s="5"/>
@@ -9489,7 +9487,7 @@
       <c r="F867" s="5"/>
       <c r="G867" s="5"/>
     </row>
-    <row r="868" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A868" s="5"/>
       <c r="B868" s="5"/>
       <c r="C868" s="5"/>
@@ -9498,7 +9496,7 @@
       <c r="F868" s="5"/>
       <c r="G868" s="5"/>
     </row>
-    <row r="869" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A869" s="5"/>
       <c r="B869" s="5"/>
       <c r="C869" s="5"/>
@@ -9507,7 +9505,7 @@
       <c r="F869" s="5"/>
       <c r="G869" s="5"/>
     </row>
-    <row r="870" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A870" s="5"/>
       <c r="B870" s="5"/>
       <c r="C870" s="5"/>
@@ -9516,7 +9514,7 @@
       <c r="F870" s="5"/>
       <c r="G870" s="5"/>
     </row>
-    <row r="871" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A871" s="5"/>
       <c r="B871" s="5"/>
       <c r="C871" s="5"/>
@@ -9525,7 +9523,7 @@
       <c r="F871" s="5"/>
       <c r="G871" s="5"/>
     </row>
-    <row r="872" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A872" s="5"/>
       <c r="B872" s="5"/>
       <c r="C872" s="5"/>
@@ -9534,7 +9532,7 @@
       <c r="F872" s="5"/>
       <c r="G872" s="5"/>
     </row>
-    <row r="873" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A873" s="5"/>
       <c r="B873" s="5"/>
       <c r="C873" s="5"/>
@@ -9543,7 +9541,7 @@
       <c r="F873" s="5"/>
       <c r="G873" s="5"/>
     </row>
-    <row r="874" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A874" s="5"/>
       <c r="B874" s="5"/>
       <c r="C874" s="5"/>
@@ -9552,7 +9550,7 @@
       <c r="F874" s="5"/>
       <c r="G874" s="5"/>
     </row>
-    <row r="875" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A875" s="5"/>
       <c r="B875" s="5"/>
       <c r="C875" s="5"/>
@@ -9561,7 +9559,7 @@
       <c r="F875" s="5"/>
       <c r="G875" s="5"/>
     </row>
-    <row r="876" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A876" s="5"/>
       <c r="B876" s="5"/>
       <c r="C876" s="5"/>
@@ -9570,7 +9568,7 @@
       <c r="F876" s="5"/>
       <c r="G876" s="5"/>
     </row>
-    <row r="877" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A877" s="5"/>
       <c r="B877" s="5"/>
       <c r="C877" s="5"/>
@@ -9579,7 +9577,7 @@
       <c r="F877" s="5"/>
       <c r="G877" s="5"/>
     </row>
-    <row r="878" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A878" s="5"/>
       <c r="B878" s="5"/>
       <c r="C878" s="5"/>
@@ -9588,7 +9586,7 @@
       <c r="F878" s="5"/>
       <c r="G878" s="5"/>
     </row>
-    <row r="879" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A879" s="5"/>
       <c r="B879" s="5"/>
       <c r="C879" s="5"/>
@@ -9597,7 +9595,7 @@
       <c r="F879" s="5"/>
       <c r="G879" s="5"/>
     </row>
-    <row r="880" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A880" s="5"/>
       <c r="B880" s="5"/>
       <c r="C880" s="5"/>
@@ -9606,7 +9604,7 @@
       <c r="F880" s="5"/>
       <c r="G880" s="5"/>
     </row>
-    <row r="881" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A881" s="5"/>
       <c r="B881" s="5"/>
       <c r="C881" s="5"/>
@@ -9615,7 +9613,7 @@
       <c r="F881" s="5"/>
       <c r="G881" s="5"/>
     </row>
-    <row r="882" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A882" s="5"/>
       <c r="B882" s="5"/>
       <c r="C882" s="5"/>
@@ -9624,7 +9622,7 @@
       <c r="F882" s="5"/>
       <c r="G882" s="5"/>
     </row>
-    <row r="883" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A883" s="5"/>
       <c r="B883" s="5"/>
       <c r="C883" s="5"/>
@@ -9633,7 +9631,7 @@
       <c r="F883" s="5"/>
       <c r="G883" s="5"/>
     </row>
-    <row r="884" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A884" s="5"/>
       <c r="B884" s="5"/>
       <c r="C884" s="5"/>
@@ -9642,7 +9640,7 @@
       <c r="F884" s="5"/>
       <c r="G884" s="5"/>
     </row>
-    <row r="885" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A885" s="5"/>
       <c r="B885" s="5"/>
       <c r="C885" s="5"/>
@@ -9651,7 +9649,7 @@
       <c r="F885" s="5"/>
       <c r="G885" s="5"/>
     </row>
-    <row r="886" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A886" s="5"/>
       <c r="B886" s="5"/>
       <c r="C886" s="5"/>
@@ -9660,7 +9658,7 @@
       <c r="F886" s="5"/>
       <c r="G886" s="5"/>
     </row>
-    <row r="887" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A887" s="5"/>
       <c r="B887" s="5"/>
       <c r="C887" s="5"/>
@@ -9669,7 +9667,7 @@
       <c r="F887" s="5"/>
       <c r="G887" s="5"/>
     </row>
-    <row r="888" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A888" s="5"/>
       <c r="B888" s="5"/>
       <c r="C888" s="5"/>
@@ -9678,7 +9676,7 @@
       <c r="F888" s="5"/>
       <c r="G888" s="5"/>
     </row>
-    <row r="889" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A889" s="5"/>
       <c r="B889" s="5"/>
       <c r="C889" s="5"/>
@@ -9687,7 +9685,7 @@
       <c r="F889" s="5"/>
       <c r="G889" s="5"/>
     </row>
-    <row r="890" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A890" s="5"/>
       <c r="B890" s="5"/>
       <c r="C890" s="5"/>
@@ -9696,7 +9694,7 @@
       <c r="F890" s="5"/>
       <c r="G890" s="5"/>
     </row>
-    <row r="891" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A891" s="5"/>
       <c r="B891" s="5"/>
       <c r="C891" s="5"/>
@@ -9705,7 +9703,7 @@
       <c r="F891" s="5"/>
       <c r="G891" s="5"/>
     </row>
-    <row r="892" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A892" s="5"/>
       <c r="B892" s="5"/>
       <c r="C892" s="5"/>
@@ -9714,7 +9712,7 @@
       <c r="F892" s="5"/>
       <c r="G892" s="5"/>
     </row>
-    <row r="893" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A893" s="5"/>
       <c r="B893" s="5"/>
       <c r="C893" s="5"/>
@@ -9723,7 +9721,7 @@
       <c r="F893" s="5"/>
       <c r="G893" s="5"/>
     </row>
-    <row r="894" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A894" s="5"/>
       <c r="B894" s="5"/>
       <c r="C894" s="5"/>
@@ -9732,7 +9730,7 @@
       <c r="F894" s="5"/>
       <c r="G894" s="5"/>
     </row>
-    <row r="895" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A895" s="5"/>
       <c r="B895" s="5"/>
       <c r="C895" s="5"/>
@@ -9741,7 +9739,7 @@
       <c r="F895" s="5"/>
       <c r="G895" s="5"/>
     </row>
-    <row r="896" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A896" s="5"/>
       <c r="B896" s="5"/>
       <c r="C896" s="5"/>
@@ -9750,7 +9748,7 @@
       <c r="F896" s="5"/>
       <c r="G896" s="5"/>
     </row>
-    <row r="897" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A897" s="5"/>
       <c r="B897" s="5"/>
       <c r="C897" s="5"/>
@@ -9759,7 +9757,7 @@
       <c r="F897" s="5"/>
       <c r="G897" s="5"/>
     </row>
-    <row r="898" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A898" s="5"/>
       <c r="B898" s="5"/>
       <c r="C898" s="5"/>
@@ -9768,7 +9766,7 @@
       <c r="F898" s="5"/>
       <c r="G898" s="5"/>
     </row>
-    <row r="899" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A899" s="5"/>
       <c r="B899" s="5"/>
       <c r="C899" s="5"/>
@@ -9777,7 +9775,7 @@
       <c r="F899" s="5"/>
       <c r="G899" s="5"/>
     </row>
-    <row r="900" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A900" s="5"/>
       <c r="B900" s="5"/>
       <c r="C900" s="5"/>
@@ -9786,7 +9784,7 @@
       <c r="F900" s="5"/>
       <c r="G900" s="5"/>
     </row>
-    <row r="901" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A901" s="5"/>
       <c r="B901" s="5"/>
       <c r="C901" s="5"/>
@@ -9795,7 +9793,7 @@
       <c r="F901" s="5"/>
       <c r="G901" s="5"/>
     </row>
-    <row r="902" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A902" s="5"/>
       <c r="B902" s="5"/>
       <c r="C902" s="5"/>
@@ -9804,7 +9802,7 @@
       <c r="F902" s="5"/>
       <c r="G902" s="5"/>
     </row>
-    <row r="903" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A903" s="5"/>
       <c r="B903" s="5"/>
       <c r="C903" s="5"/>
@@ -9813,7 +9811,7 @@
       <c r="F903" s="5"/>
       <c r="G903" s="5"/>
     </row>
-    <row r="904" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A904" s="5"/>
       <c r="B904" s="5"/>
       <c r="C904" s="5"/>
@@ -9822,7 +9820,7 @@
       <c r="F904" s="5"/>
       <c r="G904" s="5"/>
     </row>
-    <row r="905" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A905" s="5"/>
       <c r="B905" s="5"/>
       <c r="C905" s="5"/>
@@ -9831,7 +9829,7 @@
       <c r="F905" s="5"/>
       <c r="G905" s="5"/>
     </row>
-    <row r="906" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A906" s="5"/>
       <c r="B906" s="5"/>
       <c r="C906" s="5"/>
@@ -9840,7 +9838,7 @@
       <c r="F906" s="5"/>
       <c r="G906" s="5"/>
     </row>
-    <row r="907" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A907" s="5"/>
       <c r="B907" s="5"/>
       <c r="C907" s="5"/>
@@ -9849,7 +9847,7 @@
       <c r="F907" s="5"/>
       <c r="G907" s="5"/>
     </row>
-    <row r="908" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A908" s="5"/>
       <c r="B908" s="5"/>
       <c r="C908" s="5"/>
@@ -9858,7 +9856,7 @@
       <c r="F908" s="5"/>
       <c r="G908" s="5"/>
     </row>
-    <row r="909" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A909" s="5"/>
       <c r="B909" s="5"/>
       <c r="C909" s="5"/>
@@ -9867,7 +9865,7 @@
       <c r="F909" s="5"/>
       <c r="G909" s="5"/>
     </row>
-    <row r="910" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A910" s="5"/>
       <c r="B910" s="5"/>
       <c r="C910" s="5"/>
@@ -9876,7 +9874,7 @@
       <c r="F910" s="5"/>
       <c r="G910" s="5"/>
     </row>
-    <row r="911" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A911" s="5"/>
       <c r="B911" s="5"/>
       <c r="C911" s="5"/>
@@ -9885,7 +9883,7 @@
       <c r="F911" s="5"/>
       <c r="G911" s="5"/>
     </row>
-    <row r="912" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A912" s="5"/>
       <c r="B912" s="5"/>
       <c r="C912" s="5"/>
@@ -9894,7 +9892,7 @@
       <c r="F912" s="5"/>
       <c r="G912" s="5"/>
     </row>
-    <row r="913" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A913" s="5"/>
       <c r="B913" s="5"/>
       <c r="C913" s="5"/>
@@ -9903,7 +9901,7 @@
       <c r="F913" s="5"/>
       <c r="G913" s="5"/>
     </row>
-    <row r="914" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A914" s="5"/>
       <c r="B914" s="5"/>
       <c r="C914" s="5"/>
@@ -9912,7 +9910,7 @@
       <c r="F914" s="5"/>
       <c r="G914" s="5"/>
     </row>
-    <row r="915" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A915" s="5"/>
       <c r="B915" s="5"/>
       <c r="C915" s="5"/>
@@ -9921,7 +9919,7 @@
       <c r="F915" s="5"/>
       <c r="G915" s="5"/>
     </row>
-    <row r="916" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A916" s="5"/>
       <c r="B916" s="5"/>
       <c r="C916" s="5"/>
@@ -9930,7 +9928,7 @@
       <c r="F916" s="5"/>
       <c r="G916" s="5"/>
     </row>
-    <row r="917" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A917" s="5"/>
       <c r="B917" s="5"/>
       <c r="C917" s="5"/>
@@ -9939,7 +9937,7 @@
       <c r="F917" s="5"/>
       <c r="G917" s="5"/>
     </row>
-    <row r="918" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A918" s="5"/>
       <c r="B918" s="5"/>
       <c r="C918" s="5"/>
@@ -9948,7 +9946,7 @@
       <c r="F918" s="5"/>
       <c r="G918" s="5"/>
     </row>
-    <row r="919" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A919" s="5"/>
       <c r="B919" s="5"/>
       <c r="C919" s="5"/>
@@ -9957,7 +9955,7 @@
       <c r="F919" s="5"/>
       <c r="G919" s="5"/>
     </row>
-    <row r="920" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A920" s="5"/>
       <c r="B920" s="5"/>
       <c r="C920" s="5"/>
@@ -9966,7 +9964,7 @@
       <c r="F920" s="5"/>
       <c r="G920" s="5"/>
     </row>
-    <row r="921" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A921" s="5"/>
       <c r="B921" s="5"/>
       <c r="C921" s="5"/>
@@ -9975,7 +9973,7 @@
       <c r="F921" s="5"/>
       <c r="G921" s="5"/>
     </row>
-    <row r="922" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A922" s="5"/>
       <c r="B922" s="5"/>
       <c r="C922" s="5"/>
@@ -9984,7 +9982,7 @@
       <c r="F922" s="5"/>
       <c r="G922" s="5"/>
     </row>
-    <row r="923" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A923" s="5"/>
       <c r="B923" s="5"/>
       <c r="C923" s="5"/>
@@ -9993,7 +9991,7 @@
       <c r="F923" s="5"/>
       <c r="G923" s="5"/>
     </row>
-    <row r="924" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A924" s="5"/>
       <c r="B924" s="5"/>
       <c r="C924" s="5"/>
@@ -10002,7 +10000,7 @@
       <c r="F924" s="5"/>
       <c r="G924" s="5"/>
     </row>
-    <row r="925" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A925" s="5"/>
       <c r="B925" s="5"/>
       <c r="C925" s="5"/>
@@ -10011,7 +10009,7 @@
       <c r="F925" s="5"/>
       <c r="G925" s="5"/>
     </row>
-    <row r="926" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A926" s="5"/>
       <c r="B926" s="5"/>
       <c r="C926" s="5"/>
@@ -10020,7 +10018,7 @@
       <c r="F926" s="5"/>
       <c r="G926" s="5"/>
     </row>
-    <row r="927" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A927" s="5"/>
       <c r="B927" s="5"/>
       <c r="C927" s="5"/>
@@ -10029,7 +10027,7 @@
       <c r="F927" s="5"/>
       <c r="G927" s="5"/>
     </row>
-    <row r="928" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A928" s="5"/>
       <c r="B928" s="5"/>
       <c r="C928" s="5"/>
@@ -10038,7 +10036,7 @@
       <c r="F928" s="5"/>
       <c r="G928" s="5"/>
     </row>
-    <row r="929" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A929" s="5"/>
       <c r="B929" s="5"/>
       <c r="C929" s="5"/>
@@ -10047,7 +10045,7 @@
       <c r="F929" s="5"/>
       <c r="G929" s="5"/>
     </row>
-    <row r="930" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A930" s="5"/>
       <c r="B930" s="5"/>
       <c r="C930" s="5"/>
@@ -10056,7 +10054,7 @@
       <c r="F930" s="5"/>
       <c r="G930" s="5"/>
     </row>
-    <row r="931" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A931" s="5"/>
       <c r="B931" s="5"/>
       <c r="C931" s="5"/>
@@ -10065,7 +10063,7 @@
       <c r="F931" s="5"/>
       <c r="G931" s="5"/>
     </row>
-    <row r="932" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A932" s="5"/>
       <c r="B932" s="5"/>
       <c r="C932" s="5"/>
@@ -10074,7 +10072,7 @@
       <c r="F932" s="5"/>
       <c r="G932" s="5"/>
     </row>
-    <row r="933" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A933" s="5"/>
       <c r="B933" s="5"/>
       <c r="C933" s="5"/>
@@ -10083,7 +10081,7 @@
       <c r="F933" s="5"/>
       <c r="G933" s="5"/>
     </row>
-    <row r="934" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A934" s="5"/>
       <c r="B934" s="5"/>
       <c r="C934" s="5"/>
@@ -10092,7 +10090,7 @@
       <c r="F934" s="5"/>
       <c r="G934" s="5"/>
     </row>
-    <row r="935" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A935" s="5"/>
       <c r="B935" s="5"/>
       <c r="C935" s="5"/>
@@ -10101,7 +10099,7 @@
       <c r="F935" s="5"/>
       <c r="G935" s="5"/>
     </row>
-    <row r="936" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A936" s="5"/>
       <c r="B936" s="5"/>
       <c r="C936" s="5"/>
@@ -10110,7 +10108,7 @@
       <c r="F936" s="5"/>
       <c r="G936" s="5"/>
     </row>
-    <row r="937" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A937" s="5"/>
       <c r="B937" s="5"/>
       <c r="C937" s="5"/>
@@ -10119,7 +10117,7 @@
       <c r="F937" s="5"/>
       <c r="G937" s="5"/>
     </row>
-    <row r="938" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A938" s="5"/>
       <c r="B938" s="5"/>
       <c r="C938" s="5"/>
@@ -10128,7 +10126,7 @@
       <c r="F938" s="5"/>
       <c r="G938" s="5"/>
     </row>
-    <row r="939" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A939" s="5"/>
       <c r="B939" s="5"/>
       <c r="C939" s="5"/>
@@ -10137,7 +10135,7 @@
       <c r="F939" s="5"/>
       <c r="G939" s="5"/>
     </row>
-    <row r="940" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A940" s="5"/>
       <c r="B940" s="5"/>
       <c r="C940" s="5"/>
@@ -10146,7 +10144,7 @@
       <c r="F940" s="5"/>
       <c r="G940" s="5"/>
     </row>
-    <row r="941" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A941" s="5"/>
       <c r="B941" s="5"/>
       <c r="C941" s="5"/>
@@ -10155,7 +10153,7 @@
       <c r="F941" s="5"/>
       <c r="G941" s="5"/>
     </row>
-    <row r="942" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A942" s="5"/>
       <c r="B942" s="5"/>
       <c r="C942" s="5"/>
@@ -10164,7 +10162,7 @@
       <c r="F942" s="5"/>
       <c r="G942" s="5"/>
     </row>
-    <row r="943" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A943" s="5"/>
       <c r="B943" s="5"/>
       <c r="C943" s="5"/>
@@ -10173,7 +10171,7 @@
       <c r="F943" s="5"/>
       <c r="G943" s="5"/>
     </row>
-    <row r="944" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A944" s="5"/>
       <c r="B944" s="5"/>
       <c r="C944" s="5"/>
@@ -10182,7 +10180,7 @@
       <c r="F944" s="5"/>
       <c r="G944" s="5"/>
     </row>
-    <row r="945" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A945" s="5"/>
       <c r="B945" s="5"/>
       <c r="C945" s="5"/>
@@ -10191,7 +10189,7 @@
       <c r="F945" s="5"/>
       <c r="G945" s="5"/>
     </row>
-    <row r="946" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A946" s="5"/>
       <c r="B946" s="5"/>
       <c r="C946" s="5"/>
@@ -10200,7 +10198,7 @@
       <c r="F946" s="5"/>
       <c r="G946" s="5"/>
     </row>
-    <row r="947" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A947" s="5"/>
       <c r="B947" s="5"/>
       <c r="C947" s="5"/>
@@ -10209,7 +10207,7 @@
       <c r="F947" s="5"/>
       <c r="G947" s="5"/>
     </row>
-    <row r="948" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A948" s="5"/>
       <c r="B948" s="5"/>
       <c r="C948" s="5"/>
@@ -10218,7 +10216,7 @@
       <c r="F948" s="5"/>
       <c r="G948" s="5"/>
     </row>
-    <row r="949" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A949" s="5"/>
       <c r="B949" s="5"/>
       <c r="C949" s="5"/>
@@ -10227,7 +10225,7 @@
       <c r="F949" s="5"/>
       <c r="G949" s="5"/>
     </row>
-    <row r="950" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A950" s="5"/>
       <c r="B950" s="5"/>
       <c r="C950" s="5"/>
@@ -10236,7 +10234,7 @@
       <c r="F950" s="5"/>
       <c r="G950" s="5"/>
     </row>
-    <row r="951" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A951" s="5"/>
       <c r="B951" s="5"/>
       <c r="C951" s="5"/>
@@ -10245,7 +10243,7 @@
       <c r="F951" s="5"/>
       <c r="G951" s="5"/>
     </row>
-    <row r="952" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A952" s="5"/>
       <c r="B952" s="5"/>
       <c r="C952" s="5"/>
@@ -10254,7 +10252,7 @@
       <c r="F952" s="5"/>
       <c r="G952" s="5"/>
     </row>
-    <row r="953" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A953" s="5"/>
       <c r="B953" s="5"/>
       <c r="C953" s="5"/>
@@ -10263,7 +10261,7 @@
       <c r="F953" s="5"/>
       <c r="G953" s="5"/>
     </row>
-    <row r="954" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A954" s="5"/>
       <c r="B954" s="5"/>
       <c r="C954" s="5"/>
@@ -10272,7 +10270,7 @@
       <c r="F954" s="5"/>
       <c r="G954" s="5"/>
     </row>
-    <row r="955" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A955" s="5"/>
       <c r="B955" s="5"/>
       <c r="C955" s="5"/>
@@ -10281,7 +10279,7 @@
       <c r="F955" s="5"/>
       <c r="G955" s="5"/>
     </row>
-    <row r="956" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A956" s="5"/>
       <c r="B956" s="5"/>
       <c r="C956" s="5"/>
@@ -10290,7 +10288,7 @@
       <c r="F956" s="5"/>
       <c r="G956" s="5"/>
     </row>
-    <row r="957" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A957" s="5"/>
       <c r="B957" s="5"/>
       <c r="C957" s="5"/>
@@ -10299,7 +10297,7 @@
       <c r="F957" s="5"/>
       <c r="G957" s="5"/>
     </row>
-    <row r="958" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A958" s="5"/>
       <c r="B958" s="5"/>
       <c r="C958" s="5"/>
@@ -10308,7 +10306,7 @@
       <c r="F958" s="5"/>
       <c r="G958" s="5"/>
     </row>
-    <row r="959" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A959" s="5"/>
       <c r="B959" s="5"/>
       <c r="C959" s="5"/>
@@ -10317,7 +10315,7 @@
       <c r="F959" s="5"/>
       <c r="G959" s="5"/>
     </row>
-    <row r="960" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A960" s="5"/>
       <c r="B960" s="5"/>
       <c r="C960" s="5"/>
@@ -10326,7 +10324,7 @@
       <c r="F960" s="5"/>
       <c r="G960" s="5"/>
     </row>
-    <row r="961" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A961" s="5"/>
       <c r="B961" s="5"/>
       <c r="C961" s="5"/>
@@ -10335,7 +10333,7 @@
       <c r="F961" s="5"/>
       <c r="G961" s="5"/>
     </row>
-    <row r="962" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A962" s="5"/>
       <c r="B962" s="5"/>
       <c r="C962" s="5"/>
@@ -10344,7 +10342,7 @@
       <c r="F962" s="5"/>
       <c r="G962" s="5"/>
     </row>
-    <row r="963" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A963" s="5"/>
       <c r="B963" s="5"/>
       <c r="C963" s="5"/>
@@ -10353,7 +10351,7 @@
       <c r="F963" s="5"/>
       <c r="G963" s="5"/>
     </row>
-    <row r="964" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A964" s="5"/>
       <c r="B964" s="5"/>
       <c r="C964" s="5"/>
@@ -10362,7 +10360,7 @@
       <c r="F964" s="5"/>
       <c r="G964" s="5"/>
     </row>
-    <row r="965" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A965" s="5"/>
       <c r="B965" s="5"/>
       <c r="C965" s="5"/>
@@ -10371,7 +10369,7 @@
       <c r="F965" s="5"/>
       <c r="G965" s="5"/>
     </row>
-    <row r="966" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A966" s="5"/>
       <c r="B966" s="5"/>
       <c r="C966" s="5"/>
@@ -10380,7 +10378,7 @@
       <c r="F966" s="5"/>
       <c r="G966" s="5"/>
     </row>
-    <row r="967" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A967" s="5"/>
       <c r="B967" s="5"/>
       <c r="C967" s="5"/>
@@ -10389,7 +10387,7 @@
       <c r="F967" s="5"/>
       <c r="G967" s="5"/>
     </row>
-    <row r="968" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A968" s="5"/>
       <c r="B968" s="5"/>
       <c r="C968" s="5"/>
@@ -10398,7 +10396,7 @@
       <c r="F968" s="5"/>
       <c r="G968" s="5"/>
     </row>
-    <row r="969" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A969" s="5"/>
       <c r="B969" s="5"/>
       <c r="C969" s="5"/>
@@ -10407,7 +10405,7 @@
       <c r="F969" s="5"/>
       <c r="G969" s="5"/>
     </row>
-    <row r="970" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A970" s="5"/>
       <c r="B970" s="5"/>
       <c r="C970" s="5"/>
@@ -10416,7 +10414,7 @@
       <c r="F970" s="5"/>
       <c r="G970" s="5"/>
     </row>
-    <row r="971" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A971" s="5"/>
       <c r="B971" s="5"/>
       <c r="C971" s="5"/>
@@ -10425,7 +10423,7 @@
       <c r="F971" s="5"/>
       <c r="G971" s="5"/>
     </row>
-    <row r="972" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A972" s="5"/>
       <c r="B972" s="5"/>
       <c r="C972" s="5"/>
@@ -10434,7 +10432,7 @@
       <c r="F972" s="5"/>
       <c r="G972" s="5"/>
     </row>
-    <row r="973" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A973" s="5"/>
       <c r="B973" s="5"/>
       <c r="C973" s="5"/>
@@ -10443,7 +10441,7 @@
       <c r="F973" s="5"/>
       <c r="G973" s="5"/>
     </row>
-    <row r="974" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A974" s="5"/>
       <c r="B974" s="5"/>
       <c r="C974" s="5"/>
@@ -10452,7 +10450,7 @@
       <c r="F974" s="5"/>
       <c r="G974" s="5"/>
     </row>
-    <row r="975" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A975" s="5"/>
       <c r="B975" s="5"/>
       <c r="C975" s="5"/>
@@ -10461,7 +10459,7 @@
       <c r="F975" s="5"/>
       <c r="G975" s="5"/>
     </row>
-    <row r="976" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A976" s="5"/>
       <c r="B976" s="5"/>
       <c r="C976" s="5"/>
@@ -10470,7 +10468,7 @@
       <c r="F976" s="5"/>
       <c r="G976" s="5"/>
     </row>
-    <row r="977" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A977" s="5"/>
       <c r="B977" s="5"/>
       <c r="C977" s="5"/>
@@ -10479,7 +10477,7 @@
       <c r="F977" s="5"/>
       <c r="G977" s="5"/>
     </row>
-    <row r="978" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A978" s="5"/>
       <c r="B978" s="5"/>
       <c r="C978" s="5"/>
@@ -10488,7 +10486,7 @@
       <c r="F978" s="5"/>
       <c r="G978" s="5"/>
     </row>
-    <row r="979" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A979" s="5"/>
       <c r="B979" s="5"/>
       <c r="C979" s="5"/>
@@ -10497,7 +10495,7 @@
       <c r="F979" s="5"/>
       <c r="G979" s="5"/>
     </row>
-    <row r="980" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A980" s="5"/>
       <c r="B980" s="5"/>
       <c r="C980" s="5"/>
@@ -10506,7 +10504,7 @@
       <c r="F980" s="5"/>
       <c r="G980" s="5"/>
     </row>
-    <row r="981" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A981" s="5"/>
       <c r="B981" s="5"/>
       <c r="C981" s="5"/>
@@ -10515,7 +10513,7 @@
       <c r="F981" s="5"/>
       <c r="G981" s="5"/>
     </row>
-    <row r="982" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A982" s="5"/>
       <c r="B982" s="5"/>
       <c r="C982" s="5"/>
@@ -10524,7 +10522,7 @@
       <c r="F982" s="5"/>
       <c r="G982" s="5"/>
     </row>
-    <row r="983" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A983" s="5"/>
       <c r="B983" s="5"/>
       <c r="C983" s="5"/>
@@ -10533,7 +10531,7 @@
       <c r="F983" s="5"/>
       <c r="G983" s="5"/>
     </row>
-    <row r="984" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A984" s="5"/>
       <c r="B984" s="5"/>
       <c r="C984" s="5"/>
@@ -10542,7 +10540,7 @@
       <c r="F984" s="5"/>
       <c r="G984" s="5"/>
     </row>
-    <row r="985" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A985" s="5"/>
       <c r="B985" s="5"/>
       <c r="C985" s="5"/>
@@ -10551,7 +10549,7 @@
       <c r="F985" s="5"/>
       <c r="G985" s="5"/>
     </row>
-    <row r="986" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A986" s="5"/>
       <c r="B986" s="5"/>
       <c r="C986" s="5"/>
@@ -10560,7 +10558,7 @@
       <c r="F986" s="5"/>
       <c r="G986" s="5"/>
     </row>
-    <row r="987" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A987" s="5"/>
       <c r="B987" s="5"/>
       <c r="C987" s="5"/>
@@ -10569,7 +10567,7 @@
       <c r="F987" s="5"/>
       <c r="G987" s="5"/>
     </row>
-    <row r="988" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A988" s="5"/>
       <c r="B988" s="5"/>
       <c r="C988" s="5"/>
@@ -10578,7 +10576,7 @@
       <c r="F988" s="5"/>
       <c r="G988" s="5"/>
     </row>
-    <row r="989" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A989" s="5"/>
       <c r="B989" s="5"/>
       <c r="C989" s="5"/>
@@ -10587,7 +10585,7 @@
       <c r="F989" s="5"/>
       <c r="G989" s="5"/>
     </row>
-    <row r="990" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A990" s="5"/>
       <c r="B990" s="5"/>
       <c r="C990" s="5"/>
@@ -10596,7 +10594,7 @@
       <c r="F990" s="5"/>
       <c r="G990" s="5"/>
     </row>
-    <row r="991" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A991" s="5"/>
       <c r="B991" s="5"/>
       <c r="C991" s="5"/>
@@ -10605,7 +10603,7 @@
       <c r="F991" s="5"/>
       <c r="G991" s="5"/>
     </row>
-    <row r="992" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A992" s="5"/>
       <c r="B992" s="5"/>
       <c r="C992" s="5"/>
@@ -10614,7 +10612,7 @@
       <c r="F992" s="5"/>
       <c r="G992" s="5"/>
     </row>
-    <row r="993" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A993" s="5"/>
       <c r="B993" s="5"/>
       <c r="C993" s="5"/>
@@ -10623,7 +10621,7 @@
       <c r="F993" s="5"/>
       <c r="G993" s="5"/>
     </row>
-    <row r="994" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A994" s="5"/>
       <c r="B994" s="5"/>
       <c r="C994" s="5"/>
@@ -10632,7 +10630,7 @@
       <c r="F994" s="5"/>
       <c r="G994" s="5"/>
     </row>
-    <row r="995" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A995" s="5"/>
       <c r="B995" s="5"/>
       <c r="C995" s="5"/>
@@ -10641,7 +10639,7 @@
       <c r="F995" s="5"/>
       <c r="G995" s="5"/>
     </row>
-    <row r="996" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A996" s="5"/>
       <c r="B996" s="5"/>
       <c r="C996" s="5"/>
@@ -10650,7 +10648,7 @@
       <c r="F996" s="5"/>
       <c r="G996" s="5"/>
     </row>
-    <row r="997" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A997" s="5"/>
       <c r="B997" s="5"/>
       <c r="C997" s="5"/>
@@ -10659,7 +10657,7 @@
       <c r="F997" s="5"/>
       <c r="G997" s="5"/>
     </row>
-    <row r="998" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A998" s="5"/>
       <c r="B998" s="5"/>
       <c r="C998" s="5"/>
@@ -10668,7 +10666,7 @@
       <c r="F998" s="5"/>
       <c r="G998" s="5"/>
     </row>
-    <row r="999" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A999" s="5"/>
       <c r="B999" s="5"/>
       <c r="C999" s="5"/>
@@ -10677,7 +10675,7 @@
       <c r="F999" s="5"/>
       <c r="G999" s="5"/>
     </row>
-    <row r="1000" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1000" s="5"/>
       <c r="B1000" s="5"/>
       <c r="C1000" s="5"/>
@@ -10686,7 +10684,7 @@
       <c r="F1000" s="5"/>
       <c r="G1000" s="5"/>
     </row>
-    <row r="1001" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1001" s="5"/>
       <c r="B1001" s="5"/>
       <c r="C1001" s="5"/>
@@ -10695,11 +10693,10 @@
       <c r="F1001" s="5"/>
       <c r="G1001" s="5"/>
     </row>
-    <row r="1002" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1002" s="5"/>
       <c r="B1002" s="5"/>
       <c r="C1002" s="5"/>
-      <c r="D1002" s="5"/>
       <c r="E1002" s="5"/>
       <c r="F1002" s="5"/>
       <c r="G1002" s="5"/>
